--- a/data/rooms.xlsx
+++ b/data/rooms.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://merced-my.sharepoint.com/personal/ypalaciosguzman_ucmerced_edu/Documents/Fall21/Hospital_Management_System/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="123" documentId="11_F25DC773A252ABDACC10480A791A596E5ADE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BE588AD0-78A9-489F-AEAE-FF8E480BD654}"/>
+  <xr:revisionPtr revIDLastSave="142" documentId="11_F25DC773A252ABDACC10480A791A596E5ADE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B6E55AAE-65B5-4EAA-94B0-FEE94000D1E7}"/>
   <bookViews>
-    <workbookView xWindow="-21210" yWindow="2370" windowWidth="20130" windowHeight="11775" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30150" yWindow="2700" windowWidth="20130" windowHeight="11775" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,10 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="402">
-  <si>
-    <t>room_num</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="233">
   <si>
     <t>cost</t>
   </si>
@@ -60,57 +57,6 @@
     <t>Recovery Room</t>
   </si>
   <si>
-    <t>Noah</t>
-  </si>
-  <si>
-    <t>Oliver</t>
-  </si>
-  <si>
-    <t>William</t>
-  </si>
-  <si>
-    <t>Lucas</t>
-  </si>
-  <si>
-    <t>Daniel</t>
-  </si>
-  <si>
-    <t>Ethan</t>
-  </si>
-  <si>
-    <t>Jacob</t>
-  </si>
-  <si>
-    <t>Jack</t>
-  </si>
-  <si>
-    <t>Joseph</t>
-  </si>
-  <si>
-    <t>John</t>
-  </si>
-  <si>
-    <t>Samuel</t>
-  </si>
-  <si>
-    <t>David</t>
-  </si>
-  <si>
-    <t>Leo</t>
-  </si>
-  <si>
-    <t>Jaxon</t>
-  </si>
-  <si>
-    <t>Eli</t>
-  </si>
-  <si>
-    <t>Christian</t>
-  </si>
-  <si>
-    <t>hospital_id</t>
-  </si>
-  <si>
     <t>4f205924-80dc-4cb3-a6d1-e13bbbdd716a</t>
   </si>
   <si>
@@ -135,429 +81,9 @@
     <t>07f69829-5cb9-4f71-833a-354ed0815f0d</t>
   </si>
   <si>
-    <t>room_id</t>
-  </si>
-  <si>
     <t>387b9d46-464f-4a18-8dec-31423728f0e6</t>
   </si>
   <si>
-    <t>Victor</t>
-  </si>
-  <si>
-    <t>Abraham</t>
-  </si>
-  <si>
-    <t>Jesse</t>
-  </si>
-  <si>
-    <t>Charlie</t>
-  </si>
-  <si>
-    <t>Patrick</t>
-  </si>
-  <si>
-    <t>Walker</t>
-  </si>
-  <si>
-    <t>Joel</t>
-  </si>
-  <si>
-    <t>Richard</t>
-  </si>
-  <si>
-    <t>Beckett</t>
-  </si>
-  <si>
-    <t>Blake</t>
-  </si>
-  <si>
-    <t>Alejandro</t>
-  </si>
-  <si>
-    <t>Avery</t>
-  </si>
-  <si>
-    <t>Peter</t>
-  </si>
-  <si>
-    <t>Oscar</t>
-  </si>
-  <si>
-    <t>Matias</t>
-  </si>
-  <si>
-    <t>Amari</t>
-  </si>
-  <si>
-    <t>Lukas</t>
-  </si>
-  <si>
-    <t>Andres</t>
-  </si>
-  <si>
-    <t>Arlo</t>
-  </si>
-  <si>
-    <t>Colt</t>
-  </si>
-  <si>
-    <t>Adonis</t>
-  </si>
-  <si>
-    <t>Kyrie</t>
-  </si>
-  <si>
-    <t>Felix</t>
-  </si>
-  <si>
-    <t>Preston</t>
-  </si>
-  <si>
-    <t>Marcus</t>
-  </si>
-  <si>
-    <t>Holden</t>
-  </si>
-  <si>
-    <t>Emilio</t>
-  </si>
-  <si>
-    <t>Remington</t>
-  </si>
-  <si>
-    <t>Jeremy</t>
-  </si>
-  <si>
-    <t>Kaleb</t>
-  </si>
-  <si>
-    <t>Brantley</t>
-  </si>
-  <si>
-    <t>Mark</t>
-  </si>
-  <si>
-    <t>Knox</t>
-  </si>
-  <si>
-    <t>Israel</t>
-  </si>
-  <si>
-    <t>Phoenix</t>
-  </si>
-  <si>
-    <t>Kobe</t>
-  </si>
-  <si>
-    <t>Nash</t>
-  </si>
-  <si>
-    <t>Griffin</t>
-  </si>
-  <si>
-    <t>Caden</t>
-  </si>
-  <si>
-    <t>Kenneth</t>
-  </si>
-  <si>
-    <t>Kyler</t>
-  </si>
-  <si>
-    <t>Hayes</t>
-  </si>
-  <si>
-    <t>Jax</t>
-  </si>
-  <si>
-    <t>Beckham</t>
-  </si>
-  <si>
-    <t>Javier</t>
-  </si>
-  <si>
-    <t>Maximus</t>
-  </si>
-  <si>
-    <t>Simon</t>
-  </si>
-  <si>
-    <t>Paul</t>
-  </si>
-  <si>
-    <t>Omar</t>
-  </si>
-  <si>
-    <t>Kaden</t>
-  </si>
-  <si>
-    <t>Kash</t>
-  </si>
-  <si>
-    <t>Lane</t>
-  </si>
-  <si>
-    <t>Bryan</t>
-  </si>
-  <si>
-    <t>Riley</t>
-  </si>
-  <si>
-    <t>Zane</t>
-  </si>
-  <si>
-    <t>Aidan</t>
-  </si>
-  <si>
-    <t>Paxton</t>
-  </si>
-  <si>
-    <t>Maximiliano</t>
-  </si>
-  <si>
-    <t>Karson</t>
-  </si>
-  <si>
-    <t>Cash</t>
-  </si>
-  <si>
-    <t>Cayden</t>
-  </si>
-  <si>
-    <t>Emerson</t>
-  </si>
-  <si>
-    <t>Tobias</t>
-  </si>
-  <si>
-    <t>Ronan</t>
-  </si>
-  <si>
-    <t>Brian</t>
-  </si>
-  <si>
-    <t>Dallas</t>
-  </si>
-  <si>
-    <t>Bradley</t>
-  </si>
-  <si>
-    <t>Walter</t>
-  </si>
-  <si>
-    <t>Josue</t>
-  </si>
-  <si>
-    <t>Khalil</t>
-  </si>
-  <si>
-    <t>Damien</t>
-  </si>
-  <si>
-    <t>Jett</t>
-  </si>
-  <si>
-    <t>Kairo</t>
-  </si>
-  <si>
-    <t>Zander</t>
-  </si>
-  <si>
-    <t>Andre</t>
-  </si>
-  <si>
-    <t>Cohen</t>
-  </si>
-  <si>
-    <t>Crew</t>
-  </si>
-  <si>
-    <t>Colin</t>
-  </si>
-  <si>
-    <t>Chance</t>
-  </si>
-  <si>
-    <t>Malakai</t>
-  </si>
-  <si>
-    <t>Clayton</t>
-  </si>
-  <si>
-    <t>Daxton</t>
-  </si>
-  <si>
-    <t>Malcolm</t>
-  </si>
-  <si>
-    <t>Lennox</t>
-  </si>
-  <si>
-    <t>Jaden</t>
-  </si>
-  <si>
-    <t>Kayson</t>
-  </si>
-  <si>
-    <t>Bodhi</t>
-  </si>
-  <si>
-    <t>Francisco</t>
-  </si>
-  <si>
-    <t>Cody</t>
-  </si>
-  <si>
-    <t>Erick</t>
-  </si>
-  <si>
-    <t>Kameron</t>
-  </si>
-  <si>
-    <t>Atticus</t>
-  </si>
-  <si>
-    <t>Dante</t>
-  </si>
-  <si>
-    <t>Jensen</t>
-  </si>
-  <si>
-    <t>Cruz</t>
-  </si>
-  <si>
-    <t>Finley</t>
-  </si>
-  <si>
-    <t>Joaquin</t>
-  </si>
-  <si>
-    <t>Anderson</t>
-  </si>
-  <si>
-    <t>Gunner</t>
-  </si>
-  <si>
-    <t>Muhammad</t>
-  </si>
-  <si>
-    <t>Zayn</t>
-  </si>
-  <si>
-    <t>Derek</t>
-  </si>
-  <si>
-    <t>Raymond</t>
-  </si>
-  <si>
-    <t>Kyle</t>
-  </si>
-  <si>
-    <t>Angelo</t>
-  </si>
-  <si>
-    <t>Reid</t>
-  </si>
-  <si>
-    <t>Spencer</t>
-  </si>
-  <si>
-    <t>Nico</t>
-  </si>
-  <si>
-    <t>Jaylen</t>
-  </si>
-  <si>
-    <t>Jake</t>
-  </si>
-  <si>
-    <t>Manuel</t>
-  </si>
-  <si>
-    <t>Ali</t>
-  </si>
-  <si>
-    <t>Gideon</t>
-  </si>
-  <si>
-    <t>Stephen</t>
-  </si>
-  <si>
-    <t>Ellis</t>
-  </si>
-  <si>
-    <t>Orion</t>
-  </si>
-  <si>
-    <t>Rylan</t>
-  </si>
-  <si>
-    <t>Eduardo</t>
-  </si>
-  <si>
-    <t>Mario</t>
-  </si>
-  <si>
-    <t>Rory</t>
-  </si>
-  <si>
-    <t>Cristian</t>
-  </si>
-  <si>
-    <t>Odin</t>
-  </si>
-  <si>
-    <t>Tanner</t>
-  </si>
-  <si>
-    <t>Callum</t>
-  </si>
-  <si>
-    <t>Sean</t>
-  </si>
-  <si>
-    <t>Kane</t>
-  </si>
-  <si>
-    <t>Ricardo</t>
-  </si>
-  <si>
-    <t>Travis</t>
-  </si>
-  <si>
-    <t>Wade</t>
-  </si>
-  <si>
-    <t>Warren</t>
-  </si>
-  <si>
-    <t>Fernando</t>
-  </si>
-  <si>
-    <t>Titus</t>
-  </si>
-  <si>
-    <t>Leonel</t>
-  </si>
-  <si>
-    <t>Edwin</t>
-  </si>
-  <si>
-    <t>Cairo</t>
-  </si>
-  <si>
-    <t>Dakota</t>
-  </si>
-  <si>
-    <t>Ismael</t>
-  </si>
-  <si>
-    <t>Colson</t>
-  </si>
-  <si>
-    <t>Killian</t>
-  </si>
-  <si>
     <t>Tate</t>
   </si>
   <si>
@@ -576,9 +102,6 @@
     <t>Niko</t>
   </si>
   <si>
-    <t>Nasir</t>
-  </si>
-  <si>
     <t>47ca252f-02e2-4387-a69c-c54e2f3365ef</t>
   </si>
   <si>
@@ -1122,66 +645,6 @@
     <t>6fe37ed2-3059-4c59-ba53-626860df29dd</t>
   </si>
   <si>
-    <t>Batman</t>
-  </si>
-  <si>
-    <t>Superman</t>
-  </si>
-  <si>
-    <t>Wonder Women</t>
-  </si>
-  <si>
-    <t>Titan</t>
-  </si>
-  <si>
-    <t>Messi</t>
-  </si>
-  <si>
-    <t>President</t>
-  </si>
-  <si>
-    <t>Clara</t>
-  </si>
-  <si>
-    <t>Sugar</t>
-  </si>
-  <si>
-    <t>Dokabi</t>
-  </si>
-  <si>
-    <t>Ash</t>
-  </si>
-  <si>
-    <t>Pikachu</t>
-  </si>
-  <si>
-    <t>James</t>
-  </si>
-  <si>
-    <t>Cynthia</t>
-  </si>
-  <si>
-    <t>Chris</t>
-  </si>
-  <si>
-    <t>Gandi</t>
-  </si>
-  <si>
-    <t>Elias</t>
-  </si>
-  <si>
-    <t>Romel</t>
-  </si>
-  <si>
-    <t>Lays</t>
-  </si>
-  <si>
-    <t>Nike</t>
-  </si>
-  <si>
-    <t>Addidas</t>
-  </si>
-  <si>
     <t>6679e3c1-be80-4631-b30f-1b9d4f049b97</t>
   </si>
   <si>
@@ -1240,6 +703,36 @@
   </si>
   <si>
     <t>f603e756-e328-4caa-b7cd-155559005f89</t>
+  </si>
+  <si>
+    <t>room_number</t>
+  </si>
+  <si>
+    <t>h_id</t>
+  </si>
+  <si>
+    <t>r_id</t>
+  </si>
+  <si>
+    <t>p_id</t>
+  </si>
+  <si>
+    <t>b5806c52-c985-4a7a-9a2b-e7008ced9e93</t>
+  </si>
+  <si>
+    <t>7e146fb1-2ef5-4bfe-b389-9accbbbdf4c1</t>
+  </si>
+  <si>
+    <t>b7e6df32-9d74-4890-aafc-b802b0542447</t>
+  </si>
+  <si>
+    <t>5ad81ec3-263b-45e0-8d73-c8d86479ad6d</t>
+  </si>
+  <si>
+    <t>48a54302-b6de-4730-a981-e2ffd5c9f6eb</t>
+  </si>
+  <si>
+    <t>04c86517-b6e8-4c42-9e2a-35f20b24f45e</t>
   </si>
 </sst>
 </file>
@@ -1564,10 +1057,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F201"/>
+  <dimension ref="A1:G201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
-      <selection activeCell="H189" sqref="H189"/>
+    <sheetView tabSelected="1" topLeftCell="A131" workbookViewId="0">
+      <selection activeCell="F145" sqref="F145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1580,27 +1073,30 @@
     <col min="6" max="6" width="37.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
       <c r="E1" t="s">
-        <v>24</v>
+        <v>224</v>
       </c>
       <c r="F1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+      <c r="G1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1608,16 +1104,16 @@
         <v>4103</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1625,20 +1121,17 @@
         <v>4269</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E3" t="str">
         <f>$E2</f>
         <v>ddbb14ca-d099-409a-a635-ed98491843ca</v>
       </c>
       <c r="F3" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1646,20 +1139,17 @@
         <v>4984</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E4" t="str">
         <f t="shared" ref="E4:E21" si="0">$E3</f>
         <v>ddbb14ca-d099-409a-a635-ed98491843ca</v>
       </c>
       <c r="F4" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1667,17 +1157,17 @@
         <v>1664</v>
       </c>
       <c r="C5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E5" t="str">
         <f t="shared" si="0"/>
         <v>ddbb14ca-d099-409a-a635-ed98491843ca</v>
       </c>
       <c r="F5" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1685,20 +1175,17 @@
         <v>2416</v>
       </c>
       <c r="C6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E6" t="str">
         <f t="shared" si="0"/>
         <v>ddbb14ca-d099-409a-a635-ed98491843ca</v>
       </c>
       <c r="F6" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1706,20 +1193,17 @@
         <v>913</v>
       </c>
       <c r="C7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E7" t="str">
         <f t="shared" si="0"/>
         <v>ddbb14ca-d099-409a-a635-ed98491843ca</v>
       </c>
       <c r="F7" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1727,20 +1211,17 @@
         <v>938</v>
       </c>
       <c r="C8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E8" t="str">
         <f t="shared" si="0"/>
         <v>ddbb14ca-d099-409a-a635-ed98491843ca</v>
       </c>
       <c r="F8" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1748,20 +1229,17 @@
         <v>4922</v>
       </c>
       <c r="C9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="E9" t="str">
         <f t="shared" si="0"/>
         <v>ddbb14ca-d099-409a-a635-ed98491843ca</v>
       </c>
       <c r="F9" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1769,20 +1247,17 @@
         <v>1761</v>
       </c>
       <c r="C10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="E10" t="str">
         <f t="shared" si="0"/>
         <v>ddbb14ca-d099-409a-a635-ed98491843ca</v>
       </c>
       <c r="F10" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1790,20 +1265,17 @@
         <v>1732</v>
       </c>
       <c r="C11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E11" t="str">
         <f t="shared" si="0"/>
         <v>ddbb14ca-d099-409a-a635-ed98491843ca</v>
       </c>
       <c r="F11" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1811,20 +1283,17 @@
         <v>2343</v>
       </c>
       <c r="C12" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="E12" t="str">
         <f t="shared" si="0"/>
         <v>ddbb14ca-d099-409a-a635-ed98491843ca</v>
       </c>
       <c r="F12" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1832,20 +1301,17 @@
         <v>3313</v>
       </c>
       <c r="C13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E13" t="str">
         <f t="shared" si="0"/>
         <v>ddbb14ca-d099-409a-a635-ed98491843ca</v>
       </c>
       <c r="F13" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1853,17 +1319,17 @@
         <v>2275</v>
       </c>
       <c r="C14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E14" t="str">
         <f t="shared" si="0"/>
         <v>ddbb14ca-d099-409a-a635-ed98491843ca</v>
       </c>
       <c r="F14" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1871,20 +1337,17 @@
         <v>3180</v>
       </c>
       <c r="C15" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="E15" t="str">
         <f t="shared" si="0"/>
         <v>ddbb14ca-d099-409a-a635-ed98491843ca</v>
       </c>
       <c r="F15" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1892,20 +1355,17 @@
         <v>1675</v>
       </c>
       <c r="C16" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="E16" t="str">
         <f t="shared" si="0"/>
         <v>ddbb14ca-d099-409a-a635-ed98491843ca</v>
       </c>
       <c r="F16" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1913,20 +1373,17 @@
         <v>2861</v>
       </c>
       <c r="C17" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="E17" t="str">
         <f t="shared" si="0"/>
         <v>ddbb14ca-d099-409a-a635-ed98491843ca</v>
       </c>
       <c r="F17" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1934,17 +1391,17 @@
         <v>279</v>
       </c>
       <c r="C18" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E18" t="str">
         <f t="shared" si="0"/>
         <v>ddbb14ca-d099-409a-a635-ed98491843ca</v>
       </c>
       <c r="F18" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1952,20 +1409,17 @@
         <v>4142</v>
       </c>
       <c r="C19" t="s">
-        <v>6</v>
-      </c>
-      <c r="D19" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="E19" t="str">
         <f t="shared" si="0"/>
         <v>ddbb14ca-d099-409a-a635-ed98491843ca</v>
       </c>
       <c r="F19" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1973,20 +1427,17 @@
         <v>1203</v>
       </c>
       <c r="C20" t="s">
-        <v>5</v>
-      </c>
-      <c r="D20" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="E20" t="str">
         <f t="shared" si="0"/>
         <v>ddbb14ca-d099-409a-a635-ed98491843ca</v>
       </c>
       <c r="F20" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1994,20 +1445,17 @@
         <v>1044</v>
       </c>
       <c r="C21" t="s">
-        <v>7</v>
-      </c>
-      <c r="D21" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="E21" t="str">
         <f t="shared" si="0"/>
         <v>ddbb14ca-d099-409a-a635-ed98491843ca</v>
       </c>
       <c r="F21" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1</v>
       </c>
@@ -2015,19 +1463,22 @@
         <v>4103</v>
       </c>
       <c r="C22" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D22" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="E22" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="F22" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+      <c r="G22" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2</v>
       </c>
@@ -2035,20 +1486,17 @@
         <v>4269</v>
       </c>
       <c r="C23" t="s">
-        <v>5</v>
-      </c>
-      <c r="D23" t="s">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="E23" t="str">
         <f>$E22</f>
         <v>b2bcc1e7-e3a6-495e-a494-8ea1e47473bf</v>
       </c>
       <c r="F23" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>3</v>
       </c>
@@ -2056,17 +1504,17 @@
         <v>4984</v>
       </c>
       <c r="C24" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E24" t="str">
         <f t="shared" ref="E24:E41" si="1">$E23</f>
         <v>b2bcc1e7-e3a6-495e-a494-8ea1e47473bf</v>
       </c>
       <c r="F24" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>4</v>
       </c>
@@ -2074,20 +1522,17 @@
         <v>1664</v>
       </c>
       <c r="C25" t="s">
-        <v>4</v>
-      </c>
-      <c r="D25" t="s">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="E25" t="str">
         <f t="shared" si="1"/>
         <v>b2bcc1e7-e3a6-495e-a494-8ea1e47473bf</v>
       </c>
       <c r="F25" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>5</v>
       </c>
@@ -2095,20 +1540,17 @@
         <v>2416</v>
       </c>
       <c r="C26" t="s">
-        <v>4</v>
-      </c>
-      <c r="D26" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="E26" t="str">
         <f t="shared" si="1"/>
         <v>b2bcc1e7-e3a6-495e-a494-8ea1e47473bf</v>
       </c>
       <c r="F26" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>6</v>
       </c>
@@ -2116,20 +1558,17 @@
         <v>913</v>
       </c>
       <c r="C27" t="s">
-        <v>7</v>
-      </c>
-      <c r="D27" t="s">
-        <v>39</v>
+        <v>6</v>
       </c>
       <c r="E27" t="str">
         <f t="shared" si="1"/>
         <v>b2bcc1e7-e3a6-495e-a494-8ea1e47473bf</v>
       </c>
       <c r="F27" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>7</v>
       </c>
@@ -2137,20 +1576,17 @@
         <v>938</v>
       </c>
       <c r="C28" t="s">
-        <v>4</v>
-      </c>
-      <c r="D28" t="s">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="E28" t="str">
         <f t="shared" si="1"/>
         <v>b2bcc1e7-e3a6-495e-a494-8ea1e47473bf</v>
       </c>
       <c r="F28" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>8</v>
       </c>
@@ -2158,20 +1594,17 @@
         <v>4922</v>
       </c>
       <c r="C29" t="s">
-        <v>4</v>
-      </c>
-      <c r="D29" t="s">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="E29" t="str">
         <f t="shared" si="1"/>
         <v>b2bcc1e7-e3a6-495e-a494-8ea1e47473bf</v>
       </c>
       <c r="F29" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>9</v>
       </c>
@@ -2179,20 +1612,17 @@
         <v>1761</v>
       </c>
       <c r="C30" t="s">
-        <v>6</v>
-      </c>
-      <c r="D30" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="E30" t="str">
         <f t="shared" si="1"/>
         <v>b2bcc1e7-e3a6-495e-a494-8ea1e47473bf</v>
       </c>
       <c r="F30" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>10</v>
       </c>
@@ -2200,20 +1630,17 @@
         <v>1732</v>
       </c>
       <c r="C31" t="s">
-        <v>6</v>
-      </c>
-      <c r="D31" t="s">
-        <v>43</v>
+        <v>5</v>
       </c>
       <c r="E31" t="str">
         <f t="shared" si="1"/>
         <v>b2bcc1e7-e3a6-495e-a494-8ea1e47473bf</v>
       </c>
       <c r="F31" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>11</v>
       </c>
@@ -2221,20 +1648,17 @@
         <v>2343</v>
       </c>
       <c r="C32" t="s">
-        <v>6</v>
-      </c>
-      <c r="D32" t="s">
-        <v>44</v>
+        <v>5</v>
       </c>
       <c r="E32" t="str">
         <f t="shared" si="1"/>
         <v>b2bcc1e7-e3a6-495e-a494-8ea1e47473bf</v>
       </c>
       <c r="F32" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>12</v>
       </c>
@@ -2242,20 +1666,17 @@
         <v>3313</v>
       </c>
       <c r="C33" t="s">
-        <v>6</v>
-      </c>
-      <c r="D33" t="s">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="E33" t="str">
         <f t="shared" si="1"/>
         <v>b2bcc1e7-e3a6-495e-a494-8ea1e47473bf</v>
       </c>
       <c r="F33" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>13</v>
       </c>
@@ -2263,20 +1684,17 @@
         <v>2275</v>
       </c>
       <c r="C34" t="s">
-        <v>6</v>
-      </c>
-      <c r="D34" t="s">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="E34" t="str">
         <f t="shared" si="1"/>
         <v>b2bcc1e7-e3a6-495e-a494-8ea1e47473bf</v>
       </c>
       <c r="F34" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>14</v>
       </c>
@@ -2284,17 +1702,17 @@
         <v>3180</v>
       </c>
       <c r="C35" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E35" t="str">
         <f t="shared" si="1"/>
         <v>b2bcc1e7-e3a6-495e-a494-8ea1e47473bf</v>
       </c>
       <c r="F35" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>15</v>
       </c>
@@ -2302,20 +1720,17 @@
         <v>1675</v>
       </c>
       <c r="C36" t="s">
-        <v>5</v>
-      </c>
-      <c r="D36" t="s">
-        <v>47</v>
+        <v>4</v>
       </c>
       <c r="E36" t="str">
         <f t="shared" si="1"/>
         <v>b2bcc1e7-e3a6-495e-a494-8ea1e47473bf</v>
       </c>
       <c r="F36" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>16</v>
       </c>
@@ -2323,20 +1738,17 @@
         <v>2861</v>
       </c>
       <c r="C37" t="s">
-        <v>5</v>
-      </c>
-      <c r="D37" t="s">
-        <v>48</v>
+        <v>4</v>
       </c>
       <c r="E37" t="str">
         <f t="shared" si="1"/>
         <v>b2bcc1e7-e3a6-495e-a494-8ea1e47473bf</v>
       </c>
       <c r="F37" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>17</v>
       </c>
@@ -2344,20 +1756,17 @@
         <v>279</v>
       </c>
       <c r="C38" t="s">
-        <v>4</v>
-      </c>
-      <c r="D38" t="s">
-        <v>49</v>
+        <v>3</v>
       </c>
       <c r="E38" t="str">
         <f>$E37</f>
         <v>b2bcc1e7-e3a6-495e-a494-8ea1e47473bf</v>
       </c>
       <c r="F38" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>18</v>
       </c>
@@ -2365,20 +1774,17 @@
         <v>4142</v>
       </c>
       <c r="C39" t="s">
-        <v>6</v>
-      </c>
-      <c r="D39" t="s">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="E39" t="str">
         <f t="shared" si="1"/>
         <v>b2bcc1e7-e3a6-495e-a494-8ea1e47473bf</v>
       </c>
       <c r="F39" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>19</v>
       </c>
@@ -2386,20 +1792,17 @@
         <v>1203</v>
       </c>
       <c r="C40" t="s">
-        <v>5</v>
-      </c>
-      <c r="D40" t="s">
-        <v>51</v>
+        <v>4</v>
       </c>
       <c r="E40" t="str">
         <f t="shared" si="1"/>
         <v>b2bcc1e7-e3a6-495e-a494-8ea1e47473bf</v>
       </c>
       <c r="F40" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>20</v>
       </c>
@@ -2407,20 +1810,17 @@
         <v>1044</v>
       </c>
       <c r="C41" t="s">
-        <v>7</v>
-      </c>
-      <c r="D41" t="s">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="E41" t="str">
         <f t="shared" si="1"/>
         <v>b2bcc1e7-e3a6-495e-a494-8ea1e47473bf</v>
       </c>
       <c r="F41" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>1</v>
       </c>
@@ -2428,19 +1828,16 @@
         <v>4103</v>
       </c>
       <c r="C42" t="s">
-        <v>4</v>
-      </c>
-      <c r="D42" t="s">
-        <v>53</v>
+        <v>3</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="F42" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>2</v>
       </c>
@@ -2448,20 +1845,17 @@
         <v>4269</v>
       </c>
       <c r="C43" t="s">
-        <v>5</v>
-      </c>
-      <c r="D43" t="s">
-        <v>54</v>
+        <v>4</v>
       </c>
       <c r="E43" s="1" t="str">
         <f>$E42</f>
         <v>18e0672b-e749-4965-b3f7-8bfda0aa23e5</v>
       </c>
       <c r="F43" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>3</v>
       </c>
@@ -2469,20 +1863,17 @@
         <v>4984</v>
       </c>
       <c r="C44" t="s">
-        <v>6</v>
-      </c>
-      <c r="D44" t="s">
-        <v>55</v>
+        <v>5</v>
       </c>
       <c r="E44" s="1" t="str">
         <f t="shared" ref="E44:E61" si="2">$E43</f>
         <v>18e0672b-e749-4965-b3f7-8bfda0aa23e5</v>
       </c>
       <c r="F44" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>4</v>
       </c>
@@ -2490,20 +1881,17 @@
         <v>1664</v>
       </c>
       <c r="C45" t="s">
-        <v>4</v>
-      </c>
-      <c r="D45" t="s">
-        <v>56</v>
+        <v>3</v>
       </c>
       <c r="E45" s="1" t="str">
         <f t="shared" si="2"/>
         <v>18e0672b-e749-4965-b3f7-8bfda0aa23e5</v>
       </c>
       <c r="F45" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>5</v>
       </c>
@@ -2511,17 +1899,17 @@
         <v>2416</v>
       </c>
       <c r="C46" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E46" s="1" t="str">
         <f t="shared" si="2"/>
         <v>18e0672b-e749-4965-b3f7-8bfda0aa23e5</v>
       </c>
       <c r="F46" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>6</v>
       </c>
@@ -2529,20 +1917,23 @@
         <v>913</v>
       </c>
       <c r="C47" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D47" t="s">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="E47" s="1" t="str">
         <f t="shared" si="2"/>
         <v>18e0672b-e749-4965-b3f7-8bfda0aa23e5</v>
       </c>
       <c r="F47" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+      <c r="G47" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>7</v>
       </c>
@@ -2550,20 +1941,17 @@
         <v>938</v>
       </c>
       <c r="C48" t="s">
-        <v>4</v>
-      </c>
-      <c r="D48" t="s">
-        <v>58</v>
+        <v>3</v>
       </c>
       <c r="E48" s="1" t="str">
         <f t="shared" si="2"/>
         <v>18e0672b-e749-4965-b3f7-8bfda0aa23e5</v>
       </c>
       <c r="F48" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>8</v>
       </c>
@@ -2571,20 +1959,17 @@
         <v>4922</v>
       </c>
       <c r="C49" t="s">
-        <v>4</v>
-      </c>
-      <c r="D49" t="s">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="E49" s="1" t="str">
         <f t="shared" si="2"/>
         <v>18e0672b-e749-4965-b3f7-8bfda0aa23e5</v>
       </c>
       <c r="F49" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>9</v>
       </c>
@@ -2592,20 +1977,17 @@
         <v>1761</v>
       </c>
       <c r="C50" t="s">
-        <v>6</v>
-      </c>
-      <c r="D50" t="s">
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="E50" s="1" t="str">
         <f t="shared" si="2"/>
         <v>18e0672b-e749-4965-b3f7-8bfda0aa23e5</v>
       </c>
       <c r="F50" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>10</v>
       </c>
@@ -2613,20 +1995,17 @@
         <v>1732</v>
       </c>
       <c r="C51" t="s">
-        <v>6</v>
-      </c>
-      <c r="D51" t="s">
-        <v>61</v>
+        <v>5</v>
       </c>
       <c r="E51" s="1" t="str">
         <f t="shared" si="2"/>
         <v>18e0672b-e749-4965-b3f7-8bfda0aa23e5</v>
       </c>
       <c r="F51" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>11</v>
       </c>
@@ -2634,20 +2013,17 @@
         <v>2343</v>
       </c>
       <c r="C52" t="s">
-        <v>6</v>
-      </c>
-      <c r="D52" t="s">
-        <v>62</v>
+        <v>5</v>
       </c>
       <c r="E52" s="1" t="str">
         <f t="shared" si="2"/>
         <v>18e0672b-e749-4965-b3f7-8bfda0aa23e5</v>
       </c>
       <c r="F52" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>12</v>
       </c>
@@ -2655,20 +2031,17 @@
         <v>3313</v>
       </c>
       <c r="C53" t="s">
-        <v>6</v>
-      </c>
-      <c r="D53" t="s">
-        <v>63</v>
+        <v>5</v>
       </c>
       <c r="E53" s="1" t="str">
         <f t="shared" si="2"/>
         <v>18e0672b-e749-4965-b3f7-8bfda0aa23e5</v>
       </c>
       <c r="F53" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>13</v>
       </c>
@@ -2676,20 +2049,17 @@
         <v>2275</v>
       </c>
       <c r="C54" t="s">
-        <v>6</v>
-      </c>
-      <c r="D54" t="s">
-        <v>64</v>
+        <v>5</v>
       </c>
       <c r="E54" s="1" t="str">
         <f t="shared" si="2"/>
         <v>18e0672b-e749-4965-b3f7-8bfda0aa23e5</v>
       </c>
       <c r="F54" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>14</v>
       </c>
@@ -2697,20 +2067,17 @@
         <v>3180</v>
       </c>
       <c r="C55" t="s">
-        <v>4</v>
-      </c>
-      <c r="D55" t="s">
-        <v>65</v>
+        <v>3</v>
       </c>
       <c r="E55" s="1" t="str">
         <f t="shared" si="2"/>
         <v>18e0672b-e749-4965-b3f7-8bfda0aa23e5</v>
       </c>
       <c r="F55" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>15</v>
       </c>
@@ -2718,17 +2085,17 @@
         <v>1675</v>
       </c>
       <c r="C56" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E56" s="1" t="str">
         <f t="shared" si="2"/>
         <v>18e0672b-e749-4965-b3f7-8bfda0aa23e5</v>
       </c>
       <c r="F56" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>16</v>
       </c>
@@ -2736,20 +2103,17 @@
         <v>2861</v>
       </c>
       <c r="C57" t="s">
-        <v>5</v>
-      </c>
-      <c r="D57" t="s">
-        <v>66</v>
+        <v>4</v>
       </c>
       <c r="E57" s="1" t="str">
         <f t="shared" si="2"/>
         <v>18e0672b-e749-4965-b3f7-8bfda0aa23e5</v>
       </c>
       <c r="F57" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>17</v>
       </c>
@@ -2757,20 +2121,17 @@
         <v>279</v>
       </c>
       <c r="C58" t="s">
-        <v>4</v>
-      </c>
-      <c r="D58" t="s">
-        <v>67</v>
+        <v>3</v>
       </c>
       <c r="E58" s="1" t="str">
         <f t="shared" si="2"/>
         <v>18e0672b-e749-4965-b3f7-8bfda0aa23e5</v>
       </c>
       <c r="F58" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>18</v>
       </c>
@@ -2778,20 +2139,17 @@
         <v>4142</v>
       </c>
       <c r="C59" t="s">
-        <v>6</v>
-      </c>
-      <c r="D59" t="s">
-        <v>68</v>
+        <v>5</v>
       </c>
       <c r="E59" s="1" t="str">
         <f t="shared" si="2"/>
         <v>18e0672b-e749-4965-b3f7-8bfda0aa23e5</v>
       </c>
       <c r="F59" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>19</v>
       </c>
@@ -2799,20 +2157,17 @@
         <v>1203</v>
       </c>
       <c r="C60" t="s">
-        <v>5</v>
-      </c>
-      <c r="D60" t="s">
-        <v>69</v>
+        <v>4</v>
       </c>
       <c r="E60" s="1" t="str">
         <f t="shared" si="2"/>
         <v>18e0672b-e749-4965-b3f7-8bfda0aa23e5</v>
       </c>
       <c r="F60" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>20</v>
       </c>
@@ -2820,20 +2175,17 @@
         <v>1044</v>
       </c>
       <c r="C61" t="s">
-        <v>7</v>
-      </c>
-      <c r="D61" t="s">
-        <v>70</v>
+        <v>6</v>
       </c>
       <c r="E61" s="1" t="str">
         <f t="shared" si="2"/>
         <v>18e0672b-e749-4965-b3f7-8bfda0aa23e5</v>
       </c>
       <c r="F61" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>1</v>
       </c>
@@ -2841,19 +2193,22 @@
         <v>4103</v>
       </c>
       <c r="C62" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D62" t="s">
-        <v>71</v>
+        <v>20</v>
       </c>
       <c r="E62" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+      <c r="G62" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>2</v>
       </c>
@@ -2861,19 +2216,16 @@
         <v>4269</v>
       </c>
       <c r="C63" t="s">
-        <v>5</v>
-      </c>
-      <c r="D63" t="s">
-        <v>72</v>
+        <v>4</v>
       </c>
       <c r="E63" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>3</v>
       </c>
@@ -2881,16 +2233,13 @@
         <v>4984</v>
       </c>
       <c r="C64" t="s">
-        <v>6</v>
-      </c>
-      <c r="D64" t="s">
-        <v>73</v>
+        <v>5</v>
       </c>
       <c r="E64" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>243</v>
+        <v>84</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -2901,16 +2250,13 @@
         <v>1664</v>
       </c>
       <c r="C65" t="s">
-        <v>4</v>
-      </c>
-      <c r="D65" t="s">
-        <v>74</v>
+        <v>3</v>
       </c>
       <c r="E65" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>244</v>
+        <v>85</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -2921,16 +2267,13 @@
         <v>2416</v>
       </c>
       <c r="C66" t="s">
-        <v>4</v>
-      </c>
-      <c r="D66" t="s">
-        <v>75</v>
+        <v>3</v>
       </c>
       <c r="E66" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>245</v>
+        <v>86</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -2941,16 +2284,13 @@
         <v>913</v>
       </c>
       <c r="C67" t="s">
-        <v>7</v>
-      </c>
-      <c r="D67" t="s">
-        <v>76</v>
+        <v>6</v>
       </c>
       <c r="E67" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>246</v>
+        <v>87</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -2961,16 +2301,13 @@
         <v>938</v>
       </c>
       <c r="C68" t="s">
-        <v>4</v>
-      </c>
-      <c r="D68" t="s">
-        <v>77</v>
+        <v>3</v>
       </c>
       <c r="E68" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>247</v>
+        <v>88</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -2981,13 +2318,13 @@
         <v>4922</v>
       </c>
       <c r="C69" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E69" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>248</v>
+        <v>89</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -2998,16 +2335,13 @@
         <v>1761</v>
       </c>
       <c r="C70" t="s">
-        <v>6</v>
-      </c>
-      <c r="D70" t="s">
-        <v>78</v>
+        <v>5</v>
       </c>
       <c r="E70" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>249</v>
+        <v>90</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -3018,16 +2352,13 @@
         <v>1732</v>
       </c>
       <c r="C71" t="s">
-        <v>6</v>
-      </c>
-      <c r="D71" t="s">
-        <v>79</v>
+        <v>5</v>
       </c>
       <c r="E71" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>250</v>
+        <v>91</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -3038,16 +2369,13 @@
         <v>2343</v>
       </c>
       <c r="C72" t="s">
-        <v>6</v>
-      </c>
-      <c r="D72" t="s">
-        <v>80</v>
+        <v>5</v>
       </c>
       <c r="E72" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>251</v>
+        <v>92</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -3058,16 +2386,13 @@
         <v>3313</v>
       </c>
       <c r="C73" t="s">
-        <v>6</v>
-      </c>
-      <c r="D73" t="s">
-        <v>81</v>
+        <v>5</v>
       </c>
       <c r="E73" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>252</v>
+        <v>93</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -3078,16 +2403,13 @@
         <v>2275</v>
       </c>
       <c r="C74" t="s">
-        <v>6</v>
-      </c>
-      <c r="D74" t="s">
-        <v>82</v>
+        <v>5</v>
       </c>
       <c r="E74" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>253</v>
+        <v>94</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -3098,16 +2420,13 @@
         <v>3180</v>
       </c>
       <c r="C75" t="s">
-        <v>4</v>
-      </c>
-      <c r="D75" t="s">
-        <v>83</v>
+        <v>3</v>
       </c>
       <c r="E75" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>254</v>
+        <v>95</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -3118,16 +2437,13 @@
         <v>1675</v>
       </c>
       <c r="C76" t="s">
-        <v>5</v>
-      </c>
-      <c r="D76" t="s">
-        <v>84</v>
+        <v>4</v>
       </c>
       <c r="E76" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="F76" t="s">
-        <v>255</v>
+        <v>96</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -3138,16 +2454,13 @@
         <v>2861</v>
       </c>
       <c r="C77" t="s">
-        <v>5</v>
-      </c>
-      <c r="D77" t="s">
-        <v>85</v>
+        <v>4</v>
       </c>
       <c r="E77" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="F77" t="s">
-        <v>256</v>
+        <v>97</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -3158,16 +2471,13 @@
         <v>279</v>
       </c>
       <c r="C78" t="s">
-        <v>4</v>
-      </c>
-      <c r="D78" t="s">
-        <v>86</v>
+        <v>3</v>
       </c>
       <c r="E78" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="F78" t="s">
-        <v>257</v>
+        <v>98</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -3178,16 +2488,13 @@
         <v>4142</v>
       </c>
       <c r="C79" t="s">
-        <v>6</v>
-      </c>
-      <c r="D79" t="s">
-        <v>87</v>
+        <v>5</v>
       </c>
       <c r="E79" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="F79" t="s">
-        <v>258</v>
+        <v>99</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -3198,16 +2505,13 @@
         <v>1203</v>
       </c>
       <c r="C80" t="s">
-        <v>5</v>
-      </c>
-      <c r="D80" t="s">
-        <v>88</v>
+        <v>4</v>
       </c>
       <c r="E80" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>259</v>
+        <v>100</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
@@ -3218,16 +2522,13 @@
         <v>1044</v>
       </c>
       <c r="C81" t="s">
-        <v>7</v>
-      </c>
-      <c r="D81" t="s">
-        <v>89</v>
+        <v>6</v>
       </c>
       <c r="E81" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="F81" t="s">
-        <v>260</v>
+        <v>101</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
@@ -3238,13 +2539,13 @@
         <v>4103</v>
       </c>
       <c r="C82" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E82" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="F82" t="s">
-        <v>261</v>
+        <v>102</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
@@ -3255,16 +2556,13 @@
         <v>4269</v>
       </c>
       <c r="C83" t="s">
-        <v>5</v>
-      </c>
-      <c r="D83" t="s">
-        <v>90</v>
+        <v>4</v>
       </c>
       <c r="E83" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="F83" t="s">
-        <v>262</v>
+        <v>103</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
@@ -3275,16 +2573,13 @@
         <v>4984</v>
       </c>
       <c r="C84" t="s">
-        <v>6</v>
-      </c>
-      <c r="D84" t="s">
-        <v>91</v>
+        <v>5</v>
       </c>
       <c r="E84" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="F84" t="s">
-        <v>263</v>
+        <v>104</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
@@ -3295,16 +2590,13 @@
         <v>1664</v>
       </c>
       <c r="C85" t="s">
-        <v>4</v>
-      </c>
-      <c r="D85" t="s">
-        <v>92</v>
+        <v>3</v>
       </c>
       <c r="E85" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="F85" t="s">
-        <v>264</v>
+        <v>105</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
@@ -3315,16 +2607,13 @@
         <v>2416</v>
       </c>
       <c r="C86" t="s">
-        <v>4</v>
-      </c>
-      <c r="D86" t="s">
-        <v>93</v>
+        <v>3</v>
       </c>
       <c r="E86" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="F86" t="s">
-        <v>265</v>
+        <v>106</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
@@ -3335,16 +2624,13 @@
         <v>913</v>
       </c>
       <c r="C87" t="s">
-        <v>7</v>
-      </c>
-      <c r="D87" t="s">
-        <v>94</v>
+        <v>6</v>
       </c>
       <c r="E87" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="F87" t="s">
-        <v>266</v>
+        <v>107</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -3355,16 +2641,13 @@
         <v>938</v>
       </c>
       <c r="C88" t="s">
-        <v>4</v>
-      </c>
-      <c r="D88" t="s">
-        <v>95</v>
+        <v>3</v>
       </c>
       <c r="E88" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="F88" t="s">
-        <v>267</v>
+        <v>108</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
@@ -3375,16 +2658,13 @@
         <v>4922</v>
       </c>
       <c r="C89" t="s">
-        <v>4</v>
-      </c>
-      <c r="D89" t="s">
-        <v>96</v>
+        <v>3</v>
       </c>
       <c r="E89" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="F89" t="s">
-        <v>268</v>
+        <v>109</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
@@ -3395,16 +2675,13 @@
         <v>1761</v>
       </c>
       <c r="C90" t="s">
-        <v>6</v>
-      </c>
-      <c r="D90" t="s">
-        <v>97</v>
+        <v>5</v>
       </c>
       <c r="E90" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="F90" t="s">
-        <v>269</v>
+        <v>110</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
@@ -3415,16 +2692,13 @@
         <v>1732</v>
       </c>
       <c r="C91" t="s">
-        <v>6</v>
-      </c>
-      <c r="D91" t="s">
-        <v>98</v>
+        <v>5</v>
       </c>
       <c r="E91" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="F91" t="s">
-        <v>270</v>
+        <v>111</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
@@ -3435,16 +2709,13 @@
         <v>2343</v>
       </c>
       <c r="C92" t="s">
-        <v>6</v>
-      </c>
-      <c r="D92" t="s">
-        <v>99</v>
+        <v>5</v>
       </c>
       <c r="E92" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="F92" t="s">
-        <v>271</v>
+        <v>112</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
@@ -3455,16 +2726,13 @@
         <v>3313</v>
       </c>
       <c r="C93" t="s">
-        <v>6</v>
-      </c>
-      <c r="D93" t="s">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="E93" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="F93" t="s">
-        <v>272</v>
+        <v>113</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
@@ -3475,16 +2743,13 @@
         <v>2275</v>
       </c>
       <c r="C94" t="s">
-        <v>6</v>
-      </c>
-      <c r="D94" t="s">
-        <v>101</v>
+        <v>5</v>
       </c>
       <c r="E94" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="F94" t="s">
-        <v>273</v>
+        <v>114</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
@@ -3495,13 +2760,13 @@
         <v>3180</v>
       </c>
       <c r="C95" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E95" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="F95" t="s">
-        <v>274</v>
+        <v>115</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
@@ -3512,19 +2777,16 @@
         <v>1675</v>
       </c>
       <c r="C96" t="s">
-        <v>5</v>
-      </c>
-      <c r="D96" t="s">
-        <v>102</v>
+        <v>4</v>
       </c>
       <c r="E96" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="F96" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>16</v>
       </c>
@@ -3532,19 +2794,16 @@
         <v>2861</v>
       </c>
       <c r="C97" t="s">
-        <v>5</v>
-      </c>
-      <c r="D97" t="s">
-        <v>103</v>
+        <v>4</v>
       </c>
       <c r="E97" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="F97" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>17</v>
       </c>
@@ -3552,19 +2811,16 @@
         <v>279</v>
       </c>
       <c r="C98" t="s">
-        <v>4</v>
-      </c>
-      <c r="D98" t="s">
-        <v>104</v>
+        <v>3</v>
       </c>
       <c r="E98" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="F98" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>18</v>
       </c>
@@ -3572,19 +2828,16 @@
         <v>4142</v>
       </c>
       <c r="C99" t="s">
-        <v>6</v>
-      </c>
-      <c r="D99" t="s">
-        <v>105</v>
+        <v>5</v>
       </c>
       <c r="E99" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="F99" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>19</v>
       </c>
@@ -3592,19 +2845,16 @@
         <v>1203</v>
       </c>
       <c r="C100" t="s">
-        <v>5</v>
-      </c>
-      <c r="D100" t="s">
-        <v>106</v>
+        <v>4</v>
       </c>
       <c r="E100" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="F100" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>20</v>
       </c>
@@ -3612,19 +2862,16 @@
         <v>1044</v>
       </c>
       <c r="C101" t="s">
-        <v>7</v>
-      </c>
-      <c r="D101" t="s">
-        <v>107</v>
+        <v>6</v>
       </c>
       <c r="E101" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="F101" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>1</v>
       </c>
@@ -3632,19 +2879,16 @@
         <v>4103</v>
       </c>
       <c r="C102" t="s">
-        <v>4</v>
-      </c>
-      <c r="D102" t="s">
-        <v>108</v>
+        <v>3</v>
       </c>
       <c r="E102" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>2</v>
       </c>
@@ -3652,20 +2896,17 @@
         <v>4269</v>
       </c>
       <c r="C103" t="s">
-        <v>5</v>
-      </c>
-      <c r="D103" t="s">
-        <v>109</v>
+        <v>4</v>
       </c>
       <c r="E103" t="str">
         <f>$E102</f>
         <v>18050643-b157-423a-af39-0a2513341892</v>
       </c>
       <c r="F103" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>3</v>
       </c>
@@ -3673,20 +2914,17 @@
         <v>4984</v>
       </c>
       <c r="C104" t="s">
-        <v>6</v>
-      </c>
-      <c r="D104" t="s">
-        <v>110</v>
+        <v>5</v>
       </c>
       <c r="E104" t="str">
         <f t="shared" ref="E104:E121" si="3">$E103</f>
         <v>18050643-b157-423a-af39-0a2513341892</v>
       </c>
       <c r="F104" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>4</v>
       </c>
@@ -3694,20 +2932,17 @@
         <v>1664</v>
       </c>
       <c r="C105" t="s">
-        <v>4</v>
-      </c>
-      <c r="D105" t="s">
-        <v>111</v>
+        <v>3</v>
       </c>
       <c r="E105" t="str">
         <f t="shared" si="3"/>
         <v>18050643-b157-423a-af39-0a2513341892</v>
       </c>
       <c r="F105" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>5</v>
       </c>
@@ -3715,17 +2950,17 @@
         <v>2416</v>
       </c>
       <c r="C106" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E106" t="str">
         <f t="shared" si="3"/>
         <v>18050643-b157-423a-af39-0a2513341892</v>
       </c>
       <c r="F106" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>6</v>
       </c>
@@ -3733,20 +2968,23 @@
         <v>913</v>
       </c>
       <c r="C107" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D107" t="s">
-        <v>112</v>
+        <v>19</v>
       </c>
       <c r="E107" t="str">
         <f t="shared" si="3"/>
         <v>18050643-b157-423a-af39-0a2513341892</v>
       </c>
       <c r="F107" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+      <c r="G107" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>7</v>
       </c>
@@ -3754,20 +2992,17 @@
         <v>938</v>
       </c>
       <c r="C108" t="s">
-        <v>4</v>
-      </c>
-      <c r="D108" t="s">
-        <v>113</v>
+        <v>3</v>
       </c>
       <c r="E108" t="str">
         <f t="shared" si="3"/>
         <v>18050643-b157-423a-af39-0a2513341892</v>
       </c>
       <c r="F108" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>8</v>
       </c>
@@ -3775,20 +3010,17 @@
         <v>4922</v>
       </c>
       <c r="C109" t="s">
-        <v>4</v>
-      </c>
-      <c r="D109" t="s">
-        <v>114</v>
+        <v>3</v>
       </c>
       <c r="E109" t="str">
         <f t="shared" si="3"/>
         <v>18050643-b157-423a-af39-0a2513341892</v>
       </c>
       <c r="F109" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>9</v>
       </c>
@@ -3796,20 +3028,17 @@
         <v>1761</v>
       </c>
       <c r="C110" t="s">
-        <v>6</v>
-      </c>
-      <c r="D110" t="s">
-        <v>115</v>
+        <v>5</v>
       </c>
       <c r="E110" t="str">
         <f t="shared" si="3"/>
         <v>18050643-b157-423a-af39-0a2513341892</v>
       </c>
       <c r="F110" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>10</v>
       </c>
@@ -3817,20 +3046,17 @@
         <v>1732</v>
       </c>
       <c r="C111" t="s">
-        <v>6</v>
-      </c>
-      <c r="D111" t="s">
-        <v>116</v>
+        <v>5</v>
       </c>
       <c r="E111" t="str">
         <f t="shared" si="3"/>
         <v>18050643-b157-423a-af39-0a2513341892</v>
       </c>
       <c r="F111" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>11</v>
       </c>
@@ -3838,17 +3064,14 @@
         <v>2343</v>
       </c>
       <c r="C112" t="s">
-        <v>6</v>
-      </c>
-      <c r="D112" t="s">
-        <v>117</v>
+        <v>5</v>
       </c>
       <c r="E112" t="str">
         <f t="shared" si="3"/>
         <v>18050643-b157-423a-af39-0a2513341892</v>
       </c>
       <c r="F112" t="s">
-        <v>291</v>
+        <v>132</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
@@ -3859,17 +3082,14 @@
         <v>3313</v>
       </c>
       <c r="C113" t="s">
-        <v>6</v>
-      </c>
-      <c r="D113" t="s">
-        <v>118</v>
+        <v>5</v>
       </c>
       <c r="E113" t="str">
         <f t="shared" si="3"/>
         <v>18050643-b157-423a-af39-0a2513341892</v>
       </c>
       <c r="F113" t="s">
-        <v>292</v>
+        <v>133</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
@@ -3880,14 +3100,14 @@
         <v>2275</v>
       </c>
       <c r="C114" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E114" t="str">
         <f t="shared" si="3"/>
         <v>18050643-b157-423a-af39-0a2513341892</v>
       </c>
       <c r="F114" t="s">
-        <v>293</v>
+        <v>134</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
@@ -3898,17 +3118,14 @@
         <v>3180</v>
       </c>
       <c r="C115" t="s">
-        <v>4</v>
-      </c>
-      <c r="D115" t="s">
-        <v>119</v>
+        <v>3</v>
       </c>
       <c r="E115" t="str">
         <f t="shared" si="3"/>
         <v>18050643-b157-423a-af39-0a2513341892</v>
       </c>
       <c r="F115" t="s">
-        <v>294</v>
+        <v>135</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
@@ -3919,17 +3136,14 @@
         <v>1675</v>
       </c>
       <c r="C116" t="s">
-        <v>5</v>
-      </c>
-      <c r="D116" t="s">
-        <v>120</v>
+        <v>4</v>
       </c>
       <c r="E116" t="str">
         <f t="shared" si="3"/>
         <v>18050643-b157-423a-af39-0a2513341892</v>
       </c>
       <c r="F116" t="s">
-        <v>295</v>
+        <v>136</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
@@ -3940,17 +3154,14 @@
         <v>2861</v>
       </c>
       <c r="C117" t="s">
-        <v>5</v>
-      </c>
-      <c r="D117" t="s">
-        <v>121</v>
+        <v>4</v>
       </c>
       <c r="E117" t="str">
         <f t="shared" si="3"/>
         <v>18050643-b157-423a-af39-0a2513341892</v>
       </c>
       <c r="F117" t="s">
-        <v>296</v>
+        <v>137</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
@@ -3961,17 +3172,14 @@
         <v>279</v>
       </c>
       <c r="C118" t="s">
-        <v>4</v>
-      </c>
-      <c r="D118" t="s">
-        <v>122</v>
+        <v>3</v>
       </c>
       <c r="E118" t="str">
         <f t="shared" si="3"/>
         <v>18050643-b157-423a-af39-0a2513341892</v>
       </c>
       <c r="F118" t="s">
-        <v>297</v>
+        <v>138</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
@@ -3982,17 +3190,14 @@
         <v>4142</v>
       </c>
       <c r="C119" t="s">
-        <v>6</v>
-      </c>
-      <c r="D119" t="s">
-        <v>123</v>
+        <v>5</v>
       </c>
       <c r="E119" t="str">
         <f t="shared" si="3"/>
         <v>18050643-b157-423a-af39-0a2513341892</v>
       </c>
       <c r="F119" t="s">
-        <v>298</v>
+        <v>139</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
@@ -4003,17 +3208,14 @@
         <v>1203</v>
       </c>
       <c r="C120" t="s">
-        <v>5</v>
-      </c>
-      <c r="D120" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="E120" t="str">
         <f t="shared" si="3"/>
         <v>18050643-b157-423a-af39-0a2513341892</v>
       </c>
       <c r="F120" t="s">
-        <v>299</v>
+        <v>140</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
@@ -4024,17 +3226,14 @@
         <v>1044</v>
       </c>
       <c r="C121" t="s">
-        <v>7</v>
-      </c>
-      <c r="D121" t="s">
-        <v>125</v>
+        <v>6</v>
       </c>
       <c r="E121" t="str">
         <f t="shared" si="3"/>
         <v>18050643-b157-423a-af39-0a2513341892</v>
       </c>
       <c r="F121" t="s">
-        <v>300</v>
+        <v>141</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
@@ -4045,16 +3244,13 @@
         <v>4103</v>
       </c>
       <c r="C122" t="s">
-        <v>4</v>
-      </c>
-      <c r="D122" t="s">
-        <v>126</v>
+        <v>3</v>
       </c>
       <c r="E122" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>301</v>
+        <v>142</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
@@ -4065,17 +3261,14 @@
         <v>4269</v>
       </c>
       <c r="C123" t="s">
-        <v>5</v>
-      </c>
-      <c r="D123" t="s">
-        <v>127</v>
+        <v>4</v>
       </c>
       <c r="E123" t="str">
         <f>$E122</f>
         <v>387b9d46-464f-4a18-8dec-31423728f0e6</v>
       </c>
       <c r="F123" t="s">
-        <v>302</v>
+        <v>143</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
@@ -4086,17 +3279,14 @@
         <v>4984</v>
       </c>
       <c r="C124" t="s">
-        <v>6</v>
-      </c>
-      <c r="D124" t="s">
-        <v>128</v>
+        <v>5</v>
       </c>
       <c r="E124" t="str">
         <f t="shared" ref="E124:E141" si="4">$E123</f>
         <v>387b9d46-464f-4a18-8dec-31423728f0e6</v>
       </c>
       <c r="F124" t="s">
-        <v>303</v>
+        <v>144</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
@@ -4107,17 +3297,14 @@
         <v>1664</v>
       </c>
       <c r="C125" t="s">
-        <v>4</v>
-      </c>
-      <c r="D125" t="s">
-        <v>129</v>
+        <v>3</v>
       </c>
       <c r="E125" t="str">
         <f t="shared" si="4"/>
         <v>387b9d46-464f-4a18-8dec-31423728f0e6</v>
       </c>
       <c r="F125" t="s">
-        <v>304</v>
+        <v>145</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
@@ -4128,17 +3315,14 @@
         <v>2416</v>
       </c>
       <c r="C126" t="s">
-        <v>4</v>
-      </c>
-      <c r="D126" t="s">
-        <v>130</v>
+        <v>3</v>
       </c>
       <c r="E126" t="str">
         <f t="shared" si="4"/>
         <v>387b9d46-464f-4a18-8dec-31423728f0e6</v>
       </c>
       <c r="F126" t="s">
-        <v>305</v>
+        <v>146</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
@@ -4149,14 +3333,14 @@
         <v>913</v>
       </c>
       <c r="C127" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E127" t="str">
         <f t="shared" si="4"/>
         <v>387b9d46-464f-4a18-8dec-31423728f0e6</v>
       </c>
       <c r="F127" t="s">
-        <v>306</v>
+        <v>147</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
@@ -4167,20 +3351,17 @@
         <v>938</v>
       </c>
       <c r="C128" t="s">
-        <v>4</v>
-      </c>
-      <c r="D128" t="s">
-        <v>131</v>
+        <v>3</v>
       </c>
       <c r="E128" t="str">
         <f t="shared" si="4"/>
         <v>387b9d46-464f-4a18-8dec-31423728f0e6</v>
       </c>
       <c r="F128" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>8</v>
       </c>
@@ -4188,20 +3369,17 @@
         <v>4922</v>
       </c>
       <c r="C129" t="s">
-        <v>4</v>
-      </c>
-      <c r="D129" t="s">
-        <v>132</v>
+        <v>3</v>
       </c>
       <c r="E129" t="str">
         <f t="shared" si="4"/>
         <v>387b9d46-464f-4a18-8dec-31423728f0e6</v>
       </c>
       <c r="F129" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>9</v>
       </c>
@@ -4209,20 +3387,17 @@
         <v>1761</v>
       </c>
       <c r="C130" t="s">
-        <v>6</v>
-      </c>
-      <c r="D130" t="s">
-        <v>133</v>
+        <v>5</v>
       </c>
       <c r="E130" t="str">
         <f t="shared" si="4"/>
         <v>387b9d46-464f-4a18-8dec-31423728f0e6</v>
       </c>
       <c r="F130" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>10</v>
       </c>
@@ -4230,20 +3405,17 @@
         <v>1732</v>
       </c>
       <c r="C131" t="s">
-        <v>6</v>
-      </c>
-      <c r="D131" t="s">
-        <v>134</v>
+        <v>5</v>
       </c>
       <c r="E131" t="str">
         <f t="shared" si="4"/>
         <v>387b9d46-464f-4a18-8dec-31423728f0e6</v>
       </c>
       <c r="F131" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>11</v>
       </c>
@@ -4251,20 +3423,17 @@
         <v>2343</v>
       </c>
       <c r="C132" t="s">
-        <v>6</v>
-      </c>
-      <c r="D132" t="s">
-        <v>135</v>
+        <v>5</v>
       </c>
       <c r="E132" t="str">
         <f t="shared" si="4"/>
         <v>387b9d46-464f-4a18-8dec-31423728f0e6</v>
       </c>
       <c r="F132" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>12</v>
       </c>
@@ -4272,20 +3441,17 @@
         <v>3313</v>
       </c>
       <c r="C133" t="s">
-        <v>6</v>
-      </c>
-      <c r="D133" t="s">
-        <v>136</v>
+        <v>5</v>
       </c>
       <c r="E133" t="str">
         <f t="shared" si="4"/>
         <v>387b9d46-464f-4a18-8dec-31423728f0e6</v>
       </c>
       <c r="F133" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>13</v>
       </c>
@@ -4293,20 +3459,17 @@
         <v>2275</v>
       </c>
       <c r="C134" t="s">
-        <v>6</v>
-      </c>
-      <c r="D134" t="s">
-        <v>137</v>
+        <v>5</v>
       </c>
       <c r="E134" t="str">
         <f t="shared" si="4"/>
         <v>387b9d46-464f-4a18-8dec-31423728f0e6</v>
       </c>
       <c r="F134" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>14</v>
       </c>
@@ -4314,20 +3477,17 @@
         <v>3180</v>
       </c>
       <c r="C135" t="s">
-        <v>4</v>
-      </c>
-      <c r="D135" t="s">
-        <v>138</v>
+        <v>3</v>
       </c>
       <c r="E135" t="str">
         <f t="shared" si="4"/>
         <v>387b9d46-464f-4a18-8dec-31423728f0e6</v>
       </c>
       <c r="F135" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>15</v>
       </c>
@@ -4335,20 +3495,17 @@
         <v>1675</v>
       </c>
       <c r="C136" t="s">
-        <v>5</v>
-      </c>
-      <c r="D136" t="s">
-        <v>139</v>
+        <v>4</v>
       </c>
       <c r="E136" t="str">
         <f t="shared" si="4"/>
         <v>387b9d46-464f-4a18-8dec-31423728f0e6</v>
       </c>
       <c r="F136" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>16</v>
       </c>
@@ -4356,20 +3513,17 @@
         <v>2861</v>
       </c>
       <c r="C137" t="s">
-        <v>5</v>
-      </c>
-      <c r="D137" t="s">
-        <v>140</v>
+        <v>4</v>
       </c>
       <c r="E137" t="str">
         <f t="shared" si="4"/>
         <v>387b9d46-464f-4a18-8dec-31423728f0e6</v>
       </c>
       <c r="F137" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>17</v>
       </c>
@@ -4377,20 +3531,17 @@
         <v>279</v>
       </c>
       <c r="C138" t="s">
-        <v>4</v>
-      </c>
-      <c r="D138" t="s">
-        <v>141</v>
+        <v>3</v>
       </c>
       <c r="E138" t="str">
         <f t="shared" si="4"/>
         <v>387b9d46-464f-4a18-8dec-31423728f0e6</v>
       </c>
       <c r="F138" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>18</v>
       </c>
@@ -4398,20 +3549,17 @@
         <v>4142</v>
       </c>
       <c r="C139" t="s">
-        <v>6</v>
-      </c>
-      <c r="D139" t="s">
-        <v>142</v>
+        <v>5</v>
       </c>
       <c r="E139" t="str">
         <f t="shared" si="4"/>
         <v>387b9d46-464f-4a18-8dec-31423728f0e6</v>
       </c>
       <c r="F139" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>19</v>
       </c>
@@ -4419,20 +3567,17 @@
         <v>1203</v>
       </c>
       <c r="C140" t="s">
-        <v>5</v>
-      </c>
-      <c r="D140" t="s">
-        <v>143</v>
+        <v>4</v>
       </c>
       <c r="E140" t="str">
         <f t="shared" si="4"/>
         <v>387b9d46-464f-4a18-8dec-31423728f0e6</v>
       </c>
       <c r="F140" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>20</v>
       </c>
@@ -4440,20 +3585,17 @@
         <v>1044</v>
       </c>
       <c r="C141" t="s">
-        <v>7</v>
-      </c>
-      <c r="D141" t="s">
-        <v>144</v>
+        <v>6</v>
       </c>
       <c r="E141" t="str">
         <f t="shared" si="4"/>
         <v>387b9d46-464f-4a18-8dec-31423728f0e6</v>
       </c>
       <c r="F141" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>1</v>
       </c>
@@ -4461,16 +3603,16 @@
         <v>4103</v>
       </c>
       <c r="C142" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E142" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="F142" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>2</v>
       </c>
@@ -4478,19 +3620,22 @@
         <v>4269</v>
       </c>
       <c r="C143" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D143" t="s">
-        <v>145</v>
+        <v>16</v>
       </c>
       <c r="E143" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="F143" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+      <c r="G143" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>3</v>
       </c>
@@ -4498,19 +3643,16 @@
         <v>4984</v>
       </c>
       <c r="C144" t="s">
-        <v>6</v>
-      </c>
-      <c r="D144" t="s">
-        <v>146</v>
+        <v>5</v>
       </c>
       <c r="E144" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="F144" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>4</v>
       </c>
@@ -4518,19 +3660,16 @@
         <v>1664</v>
       </c>
       <c r="C145" t="s">
-        <v>4</v>
-      </c>
-      <c r="D145" t="s">
-        <v>147</v>
+        <v>3</v>
       </c>
       <c r="E145" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="F145" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>5</v>
       </c>
@@ -4538,19 +3677,22 @@
         <v>2416</v>
       </c>
       <c r="C146" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D146" t="s">
-        <v>148</v>
+        <v>21</v>
       </c>
       <c r="E146" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="F146" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+      <c r="G146" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>6</v>
       </c>
@@ -4558,19 +3700,16 @@
         <v>913</v>
       </c>
       <c r="C147" t="s">
+        <v>6</v>
+      </c>
+      <c r="E147" t="s">
         <v>7</v>
       </c>
-      <c r="D147" t="s">
-        <v>149</v>
-      </c>
-      <c r="E147" t="s">
-        <v>25</v>
-      </c>
       <c r="F147" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>7</v>
       </c>
@@ -4578,19 +3717,16 @@
         <v>938</v>
       </c>
       <c r="C148" t="s">
-        <v>4</v>
-      </c>
-      <c r="D148" t="s">
-        <v>150</v>
+        <v>3</v>
       </c>
       <c r="E148" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="F148" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>8</v>
       </c>
@@ -4598,19 +3734,16 @@
         <v>4922</v>
       </c>
       <c r="C149" t="s">
-        <v>4</v>
-      </c>
-      <c r="D149" t="s">
-        <v>151</v>
+        <v>3</v>
       </c>
       <c r="E149" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="F149" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>9</v>
       </c>
@@ -4618,19 +3751,16 @@
         <v>1761</v>
       </c>
       <c r="C150" t="s">
-        <v>6</v>
-      </c>
-      <c r="D150" t="s">
-        <v>152</v>
+        <v>5</v>
       </c>
       <c r="E150" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="F150" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>10</v>
       </c>
@@ -4638,19 +3768,16 @@
         <v>1732</v>
       </c>
       <c r="C151" t="s">
-        <v>6</v>
-      </c>
-      <c r="D151" t="s">
-        <v>153</v>
+        <v>5</v>
       </c>
       <c r="E151" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="F151" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>11</v>
       </c>
@@ -4658,19 +3785,16 @@
         <v>2343</v>
       </c>
       <c r="C152" t="s">
-        <v>6</v>
-      </c>
-      <c r="D152" t="s">
-        <v>154</v>
+        <v>5</v>
       </c>
       <c r="E152" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="F152" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>12</v>
       </c>
@@ -4678,19 +3802,16 @@
         <v>3313</v>
       </c>
       <c r="C153" t="s">
-        <v>6</v>
-      </c>
-      <c r="D153" t="s">
-        <v>155</v>
+        <v>5</v>
       </c>
       <c r="E153" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="F153" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>13</v>
       </c>
@@ -4698,19 +3819,16 @@
         <v>2275</v>
       </c>
       <c r="C154" t="s">
-        <v>6</v>
-      </c>
-      <c r="D154" t="s">
-        <v>156</v>
+        <v>5</v>
       </c>
       <c r="E154" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="F154" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>14</v>
       </c>
@@ -4718,19 +3836,16 @@
         <v>3180</v>
       </c>
       <c r="C155" t="s">
-        <v>4</v>
-      </c>
-      <c r="D155" t="s">
-        <v>157</v>
+        <v>3</v>
       </c>
       <c r="E155" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="F155" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>15</v>
       </c>
@@ -4738,16 +3853,16 @@
         <v>1675</v>
       </c>
       <c r="C156" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E156" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="F156" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>16</v>
       </c>
@@ -4755,19 +3870,16 @@
         <v>2861</v>
       </c>
       <c r="C157" t="s">
-        <v>5</v>
-      </c>
-      <c r="D157" t="s">
-        <v>158</v>
+        <v>4</v>
       </c>
       <c r="E157" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="F157" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>17</v>
       </c>
@@ -4775,19 +3887,16 @@
         <v>279</v>
       </c>
       <c r="C158" t="s">
-        <v>4</v>
-      </c>
-      <c r="D158" t="s">
-        <v>159</v>
+        <v>3</v>
       </c>
       <c r="E158" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="F158" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>18</v>
       </c>
@@ -4795,19 +3904,16 @@
         <v>4142</v>
       </c>
       <c r="C159" t="s">
-        <v>6</v>
-      </c>
-      <c r="D159" t="s">
-        <v>160</v>
+        <v>5</v>
       </c>
       <c r="E159" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="F159" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>19</v>
       </c>
@@ -4815,16 +3921,13 @@
         <v>1203</v>
       </c>
       <c r="C160" t="s">
-        <v>5</v>
-      </c>
-      <c r="D160" t="s">
-        <v>161</v>
+        <v>4</v>
       </c>
       <c r="E160" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="F160" t="s">
-        <v>339</v>
+        <v>180</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
@@ -4835,16 +3938,13 @@
         <v>1044</v>
       </c>
       <c r="C161" t="s">
+        <v>6</v>
+      </c>
+      <c r="E161" t="s">
         <v>7</v>
       </c>
-      <c r="D161" t="s">
-        <v>162</v>
-      </c>
-      <c r="E161" t="s">
-        <v>25</v>
-      </c>
       <c r="F161" t="s">
-        <v>340</v>
+        <v>181</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
@@ -4855,16 +3955,13 @@
         <v>4103</v>
       </c>
       <c r="C162" t="s">
-        <v>4</v>
-      </c>
-      <c r="D162" t="s">
-        <v>163</v>
+        <v>3</v>
       </c>
       <c r="E162" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="F162" t="s">
-        <v>341</v>
+        <v>182</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
@@ -4875,17 +3972,14 @@
         <v>4269</v>
       </c>
       <c r="C163" t="s">
-        <v>5</v>
-      </c>
-      <c r="D163" t="s">
-        <v>164</v>
+        <v>4</v>
       </c>
       <c r="E163" t="str">
         <f>$E162</f>
         <v>d27b4d00-2d02-4b71-8ebf-c2357f2e8ed0</v>
       </c>
       <c r="F163" t="s">
-        <v>342</v>
+        <v>183</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
@@ -4896,17 +3990,14 @@
         <v>4984</v>
       </c>
       <c r="C164" t="s">
-        <v>6</v>
-      </c>
-      <c r="D164" t="s">
-        <v>165</v>
+        <v>5</v>
       </c>
       <c r="E164" t="str">
         <f t="shared" ref="E164:E181" si="5">$E163</f>
         <v>d27b4d00-2d02-4b71-8ebf-c2357f2e8ed0</v>
       </c>
       <c r="F164" t="s">
-        <v>343</v>
+        <v>184</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
@@ -4917,17 +4008,14 @@
         <v>1664</v>
       </c>
       <c r="C165" t="s">
-        <v>4</v>
-      </c>
-      <c r="D165" t="s">
-        <v>166</v>
+        <v>3</v>
       </c>
       <c r="E165" t="str">
         <f t="shared" si="5"/>
         <v>d27b4d00-2d02-4b71-8ebf-c2357f2e8ed0</v>
       </c>
       <c r="F165" t="s">
-        <v>344</v>
+        <v>185</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
@@ -4938,17 +4026,14 @@
         <v>2416</v>
       </c>
       <c r="C166" t="s">
-        <v>4</v>
-      </c>
-      <c r="D166" t="s">
-        <v>167</v>
+        <v>3</v>
       </c>
       <c r="E166" t="str">
         <f t="shared" si="5"/>
         <v>d27b4d00-2d02-4b71-8ebf-c2357f2e8ed0</v>
       </c>
       <c r="F166" t="s">
-        <v>345</v>
+        <v>186</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
@@ -4959,17 +4044,14 @@
         <v>913</v>
       </c>
       <c r="C167" t="s">
-        <v>7</v>
-      </c>
-      <c r="D167" t="s">
-        <v>168</v>
+        <v>6</v>
       </c>
       <c r="E167" t="str">
         <f t="shared" si="5"/>
         <v>d27b4d00-2d02-4b71-8ebf-c2357f2e8ed0</v>
       </c>
       <c r="F167" t="s">
-        <v>346</v>
+        <v>187</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
@@ -4980,17 +4062,14 @@
         <v>938</v>
       </c>
       <c r="C168" t="s">
-        <v>4</v>
-      </c>
-      <c r="D168" t="s">
-        <v>169</v>
+        <v>3</v>
       </c>
       <c r="E168" t="str">
         <f t="shared" si="5"/>
         <v>d27b4d00-2d02-4b71-8ebf-c2357f2e8ed0</v>
       </c>
       <c r="F168" t="s">
-        <v>347</v>
+        <v>188</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
@@ -5001,14 +4080,14 @@
         <v>4922</v>
       </c>
       <c r="C169" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E169" t="str">
         <f t="shared" si="5"/>
         <v>d27b4d00-2d02-4b71-8ebf-c2357f2e8ed0</v>
       </c>
       <c r="F169" t="s">
-        <v>348</v>
+        <v>189</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
@@ -5019,17 +4098,14 @@
         <v>1761</v>
       </c>
       <c r="C170" t="s">
-        <v>6</v>
-      </c>
-      <c r="D170" t="s">
-        <v>170</v>
+        <v>5</v>
       </c>
       <c r="E170" t="str">
         <f t="shared" si="5"/>
         <v>d27b4d00-2d02-4b71-8ebf-c2357f2e8ed0</v>
       </c>
       <c r="F170" t="s">
-        <v>349</v>
+        <v>190</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
@@ -5040,17 +4116,14 @@
         <v>1732</v>
       </c>
       <c r="C171" t="s">
-        <v>6</v>
-      </c>
-      <c r="D171" t="s">
-        <v>171</v>
+        <v>5</v>
       </c>
       <c r="E171" t="str">
         <f t="shared" si="5"/>
         <v>d27b4d00-2d02-4b71-8ebf-c2357f2e8ed0</v>
       </c>
       <c r="F171" t="s">
-        <v>350</v>
+        <v>191</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
@@ -5061,17 +4134,14 @@
         <v>2343</v>
       </c>
       <c r="C172" t="s">
-        <v>6</v>
-      </c>
-      <c r="D172" t="s">
-        <v>172</v>
+        <v>5</v>
       </c>
       <c r="E172" t="str">
         <f t="shared" si="5"/>
         <v>d27b4d00-2d02-4b71-8ebf-c2357f2e8ed0</v>
       </c>
       <c r="F172" t="s">
-        <v>351</v>
+        <v>192</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
@@ -5082,17 +4152,14 @@
         <v>3313</v>
       </c>
       <c r="C173" t="s">
-        <v>6</v>
-      </c>
-      <c r="D173" t="s">
-        <v>173</v>
+        <v>5</v>
       </c>
       <c r="E173" t="str">
         <f t="shared" si="5"/>
         <v>d27b4d00-2d02-4b71-8ebf-c2357f2e8ed0</v>
       </c>
       <c r="F173" t="s">
-        <v>352</v>
+        <v>193</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
@@ -5103,14 +4170,14 @@
         <v>2275</v>
       </c>
       <c r="C174" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E174" t="str">
         <f t="shared" si="5"/>
         <v>d27b4d00-2d02-4b71-8ebf-c2357f2e8ed0</v>
       </c>
       <c r="F174" t="s">
-        <v>353</v>
+        <v>194</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
@@ -5121,17 +4188,14 @@
         <v>3180</v>
       </c>
       <c r="C175" t="s">
-        <v>4</v>
-      </c>
-      <c r="D175" t="s">
-        <v>174</v>
+        <v>3</v>
       </c>
       <c r="E175" t="str">
         <f t="shared" si="5"/>
         <v>d27b4d00-2d02-4b71-8ebf-c2357f2e8ed0</v>
       </c>
       <c r="F175" t="s">
-        <v>354</v>
+        <v>195</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
@@ -5142,17 +4206,14 @@
         <v>1675</v>
       </c>
       <c r="C176" t="s">
-        <v>5</v>
-      </c>
-      <c r="D176" t="s">
-        <v>175</v>
+        <v>4</v>
       </c>
       <c r="E176" t="str">
         <f t="shared" si="5"/>
         <v>d27b4d00-2d02-4b71-8ebf-c2357f2e8ed0</v>
       </c>
       <c r="F176" t="s">
-        <v>355</v>
+        <v>196</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
@@ -5163,17 +4224,14 @@
         <v>2861</v>
       </c>
       <c r="C177" t="s">
-        <v>5</v>
-      </c>
-      <c r="D177" t="s">
-        <v>176</v>
+        <v>4</v>
       </c>
       <c r="E177" t="str">
         <f t="shared" si="5"/>
         <v>d27b4d00-2d02-4b71-8ebf-c2357f2e8ed0</v>
       </c>
       <c r="F177" t="s">
-        <v>356</v>
+        <v>197</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
@@ -5184,17 +4242,14 @@
         <v>279</v>
       </c>
       <c r="C178" t="s">
-        <v>4</v>
-      </c>
-      <c r="D178" t="s">
-        <v>177</v>
+        <v>3</v>
       </c>
       <c r="E178" t="str">
         <f t="shared" si="5"/>
         <v>d27b4d00-2d02-4b71-8ebf-c2357f2e8ed0</v>
       </c>
       <c r="F178" t="s">
-        <v>357</v>
+        <v>198</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
@@ -5205,17 +4260,14 @@
         <v>4142</v>
       </c>
       <c r="C179" t="s">
-        <v>6</v>
-      </c>
-      <c r="D179" t="s">
-        <v>178</v>
+        <v>5</v>
       </c>
       <c r="E179" t="str">
         <f t="shared" si="5"/>
         <v>d27b4d00-2d02-4b71-8ebf-c2357f2e8ed0</v>
       </c>
       <c r="F179" t="s">
-        <v>358</v>
+        <v>199</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
@@ -5226,17 +4278,14 @@
         <v>1203</v>
       </c>
       <c r="C180" t="s">
-        <v>5</v>
-      </c>
-      <c r="D180" t="s">
-        <v>179</v>
+        <v>4</v>
       </c>
       <c r="E180" t="str">
         <f t="shared" si="5"/>
         <v>d27b4d00-2d02-4b71-8ebf-c2357f2e8ed0</v>
       </c>
       <c r="F180" t="s">
-        <v>359</v>
+        <v>200</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
@@ -5247,17 +4296,14 @@
         <v>1044</v>
       </c>
       <c r="C181" t="s">
-        <v>7</v>
-      </c>
-      <c r="D181" t="s">
-        <v>180</v>
+        <v>6</v>
       </c>
       <c r="E181" t="str">
         <f t="shared" si="5"/>
         <v>d27b4d00-2d02-4b71-8ebf-c2357f2e8ed0</v>
       </c>
       <c r="F181" s="1" t="s">
-        <v>360</v>
+        <v>201</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
@@ -5268,16 +4314,13 @@
         <v>4103</v>
       </c>
       <c r="C182" t="s">
-        <v>4</v>
-      </c>
-      <c r="D182" t="s">
-        <v>362</v>
+        <v>3</v>
       </c>
       <c r="E182" t="s">
-        <v>361</v>
+        <v>202</v>
       </c>
       <c r="F182" t="s">
-        <v>382</v>
+        <v>203</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
@@ -5288,17 +4331,14 @@
         <v>4269</v>
       </c>
       <c r="C183" t="s">
-        <v>5</v>
-      </c>
-      <c r="D183" t="s">
-        <v>363</v>
+        <v>4</v>
       </c>
       <c r="E183" t="str">
         <f>E182</f>
         <v>6fe37ed2-3059-4c59-ba53-626860df29dd</v>
       </c>
       <c r="F183" t="s">
-        <v>383</v>
+        <v>204</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
@@ -5309,17 +4349,14 @@
         <v>4984</v>
       </c>
       <c r="C184" t="s">
-        <v>6</v>
-      </c>
-      <c r="D184" t="s">
-        <v>364</v>
+        <v>5</v>
       </c>
       <c r="E184" t="str">
         <f t="shared" ref="E184:E201" si="6">E183</f>
         <v>6fe37ed2-3059-4c59-ba53-626860df29dd</v>
       </c>
       <c r="F184" t="s">
-        <v>384</v>
+        <v>205</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
@@ -5330,17 +4367,14 @@
         <v>1664</v>
       </c>
       <c r="C185" t="s">
-        <v>4</v>
-      </c>
-      <c r="D185" t="s">
-        <v>365</v>
+        <v>3</v>
       </c>
       <c r="E185" t="str">
         <f t="shared" si="6"/>
         <v>6fe37ed2-3059-4c59-ba53-626860df29dd</v>
       </c>
       <c r="F185" t="s">
-        <v>385</v>
+        <v>206</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
@@ -5351,17 +4385,14 @@
         <v>2416</v>
       </c>
       <c r="C186" t="s">
-        <v>4</v>
-      </c>
-      <c r="D186" t="s">
-        <v>366</v>
+        <v>3</v>
       </c>
       <c r="E186" t="str">
         <f t="shared" si="6"/>
         <v>6fe37ed2-3059-4c59-ba53-626860df29dd</v>
       </c>
       <c r="F186" t="s">
-        <v>386</v>
+        <v>207</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
@@ -5372,17 +4403,14 @@
         <v>913</v>
       </c>
       <c r="C187" t="s">
-        <v>7</v>
-      </c>
-      <c r="D187" t="s">
-        <v>367</v>
+        <v>6</v>
       </c>
       <c r="E187" t="str">
         <f t="shared" si="6"/>
         <v>6fe37ed2-3059-4c59-ba53-626860df29dd</v>
       </c>
       <c r="F187" t="s">
-        <v>387</v>
+        <v>208</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
@@ -5393,17 +4421,14 @@
         <v>938</v>
       </c>
       <c r="C188" t="s">
-        <v>4</v>
-      </c>
-      <c r="D188" t="s">
-        <v>368</v>
+        <v>3</v>
       </c>
       <c r="E188" t="str">
         <f t="shared" si="6"/>
         <v>6fe37ed2-3059-4c59-ba53-626860df29dd</v>
       </c>
       <c r="F188" t="s">
-        <v>388</v>
+        <v>209</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
@@ -5414,17 +4439,14 @@
         <v>4922</v>
       </c>
       <c r="C189" t="s">
-        <v>4</v>
-      </c>
-      <c r="D189" t="s">
-        <v>369</v>
+        <v>3</v>
       </c>
       <c r="E189" t="str">
         <f t="shared" si="6"/>
         <v>6fe37ed2-3059-4c59-ba53-626860df29dd</v>
       </c>
       <c r="F189" t="s">
-        <v>389</v>
+        <v>210</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
@@ -5435,17 +4457,14 @@
         <v>1761</v>
       </c>
       <c r="C190" t="s">
-        <v>6</v>
-      </c>
-      <c r="D190" t="s">
-        <v>370</v>
+        <v>5</v>
       </c>
       <c r="E190" t="str">
         <f t="shared" si="6"/>
         <v>6fe37ed2-3059-4c59-ba53-626860df29dd</v>
       </c>
       <c r="F190" t="s">
-        <v>390</v>
+        <v>211</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
@@ -5456,17 +4475,14 @@
         <v>1732</v>
       </c>
       <c r="C191" t="s">
-        <v>6</v>
-      </c>
-      <c r="D191" t="s">
-        <v>371</v>
+        <v>5</v>
       </c>
       <c r="E191" t="str">
         <f t="shared" si="6"/>
         <v>6fe37ed2-3059-4c59-ba53-626860df29dd</v>
       </c>
       <c r="F191" t="s">
-        <v>391</v>
+        <v>212</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
@@ -5477,17 +4493,14 @@
         <v>2343</v>
       </c>
       <c r="C192" t="s">
-        <v>6</v>
-      </c>
-      <c r="D192" t="s">
-        <v>372</v>
+        <v>5</v>
       </c>
       <c r="E192" t="str">
         <f t="shared" si="6"/>
         <v>6fe37ed2-3059-4c59-ba53-626860df29dd</v>
       </c>
       <c r="F192" t="s">
-        <v>392</v>
+        <v>213</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
@@ -5498,17 +4511,14 @@
         <v>3313</v>
       </c>
       <c r="C193" t="s">
-        <v>6</v>
-      </c>
-      <c r="D193" t="s">
-        <v>373</v>
+        <v>5</v>
       </c>
       <c r="E193" t="str">
         <f t="shared" si="6"/>
         <v>6fe37ed2-3059-4c59-ba53-626860df29dd</v>
       </c>
       <c r="F193" t="s">
-        <v>393</v>
+        <v>214</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
@@ -5519,17 +4529,14 @@
         <v>2275</v>
       </c>
       <c r="C194" t="s">
-        <v>6</v>
-      </c>
-      <c r="D194" t="s">
-        <v>374</v>
+        <v>5</v>
       </c>
       <c r="E194" t="str">
         <f t="shared" si="6"/>
         <v>6fe37ed2-3059-4c59-ba53-626860df29dd</v>
       </c>
       <c r="F194" t="s">
-        <v>394</v>
+        <v>215</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
@@ -5540,17 +4547,14 @@
         <v>3180</v>
       </c>
       <c r="C195" t="s">
-        <v>4</v>
-      </c>
-      <c r="D195" t="s">
-        <v>375</v>
+        <v>3</v>
       </c>
       <c r="E195" t="str">
         <f t="shared" si="6"/>
         <v>6fe37ed2-3059-4c59-ba53-626860df29dd</v>
       </c>
       <c r="F195" t="s">
-        <v>395</v>
+        <v>216</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
@@ -5561,17 +4565,14 @@
         <v>1675</v>
       </c>
       <c r="C196" t="s">
-        <v>5</v>
-      </c>
-      <c r="D196" t="s">
-        <v>376</v>
+        <v>4</v>
       </c>
       <c r="E196" t="str">
         <f t="shared" si="6"/>
         <v>6fe37ed2-3059-4c59-ba53-626860df29dd</v>
       </c>
       <c r="F196" t="s">
-        <v>396</v>
+        <v>217</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
@@ -5582,17 +4583,14 @@
         <v>2861</v>
       </c>
       <c r="C197" t="s">
-        <v>5</v>
-      </c>
-      <c r="D197" t="s">
-        <v>377</v>
+        <v>4</v>
       </c>
       <c r="E197" t="str">
         <f t="shared" si="6"/>
         <v>6fe37ed2-3059-4c59-ba53-626860df29dd</v>
       </c>
       <c r="F197" t="s">
-        <v>397</v>
+        <v>218</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
@@ -5603,17 +4601,14 @@
         <v>279</v>
       </c>
       <c r="C198" t="s">
-        <v>4</v>
-      </c>
-      <c r="D198" t="s">
-        <v>378</v>
+        <v>3</v>
       </c>
       <c r="E198" t="str">
         <f t="shared" si="6"/>
         <v>6fe37ed2-3059-4c59-ba53-626860df29dd</v>
       </c>
       <c r="F198" t="s">
-        <v>398</v>
+        <v>219</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
@@ -5624,17 +4619,14 @@
         <v>4142</v>
       </c>
       <c r="C199" t="s">
-        <v>6</v>
-      </c>
-      <c r="D199" t="s">
-        <v>379</v>
+        <v>5</v>
       </c>
       <c r="E199" t="str">
         <f t="shared" si="6"/>
         <v>6fe37ed2-3059-4c59-ba53-626860df29dd</v>
       </c>
       <c r="F199" t="s">
-        <v>399</v>
+        <v>220</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
@@ -5645,17 +4637,14 @@
         <v>1203</v>
       </c>
       <c r="C200" t="s">
-        <v>5</v>
-      </c>
-      <c r="D200" t="s">
-        <v>380</v>
+        <v>4</v>
       </c>
       <c r="E200" t="str">
         <f t="shared" si="6"/>
         <v>6fe37ed2-3059-4c59-ba53-626860df29dd</v>
       </c>
       <c r="F200" t="s">
-        <v>400</v>
+        <v>221</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.25">
@@ -5666,17 +4655,14 @@
         <v>1044</v>
       </c>
       <c r="C201" t="s">
-        <v>7</v>
-      </c>
-      <c r="D201" t="s">
-        <v>381</v>
+        <v>6</v>
       </c>
       <c r="E201" t="str">
         <f t="shared" si="6"/>
         <v>6fe37ed2-3059-4c59-ba53-626860df29dd</v>
       </c>
       <c r="F201" t="s">
-        <v>401</v>
+        <v>222</v>
       </c>
     </row>
   </sheetData>

--- a/data/rooms.xlsx
+++ b/data/rooms.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://merced-my.sharepoint.com/personal/ypalaciosguzman_ucmerced_edu/Documents/Fall21/Hospital_Management_System/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="142" documentId="11_F25DC773A252ABDACC10480A791A596E5ADE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B6E55AAE-65B5-4EAA-94B0-FEE94000D1E7}"/>
+  <xr:revisionPtr revIDLastSave="161" documentId="11_F25DC773A252ABDACC10480A791A596E5ADE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C35D02DF-4502-4230-921A-BD67D326CCD9}"/>
   <bookViews>
-    <workbookView xWindow="30150" yWindow="2700" windowWidth="20130" windowHeight="11775" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="227">
   <si>
     <t>cost</t>
   </si>
@@ -82,24 +82,6 @@
   </si>
   <si>
     <t>387b9d46-464f-4a18-8dec-31423728f0e6</t>
-  </si>
-  <si>
-    <t>Tate</t>
-  </si>
-  <si>
-    <t>Gianni</t>
-  </si>
-  <si>
-    <t>Elian</t>
-  </si>
-  <si>
-    <t>Remy</t>
-  </si>
-  <si>
-    <t>Lawson</t>
-  </si>
-  <si>
-    <t>Niko</t>
   </si>
   <si>
     <t>47ca252f-02e2-4387-a69c-c54e2f3365ef</t>
@@ -1059,8 +1041,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A131" workbookViewId="0">
-      <selection activeCell="F145" sqref="F145"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1075,7 +1057,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1087,13 +1069,13 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="F1" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="G1" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -1106,11 +1088,15 @@
       <c r="C2" t="s">
         <v>3</v>
       </c>
+      <c r="D2">
+        <f ca="1">INT(RANDBETWEEN(1,5))</f>
+        <v>4</v>
+      </c>
       <c r="E2" t="s">
         <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1122,13 +1108,17 @@
       </c>
       <c r="C3" t="s">
         <v>4</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D21" ca="1" si="0">INT(RANDBETWEEN(1,5))</f>
+        <v>1</v>
       </c>
       <c r="E3" t="str">
         <f>$E2</f>
         <v>ddbb14ca-d099-409a-a635-ed98491843ca</v>
       </c>
       <c r="F3" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -1141,12 +1131,16 @@
       <c r="C4" t="s">
         <v>5</v>
       </c>
+      <c r="D4">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
       <c r="E4" t="str">
-        <f t="shared" ref="E4:E21" si="0">$E3</f>
+        <f t="shared" ref="E4:E21" si="1">$E3</f>
         <v>ddbb14ca-d099-409a-a635-ed98491843ca</v>
       </c>
       <c r="F4" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -1159,12 +1153,16 @@
       <c r="C5" t="s">
         <v>3</v>
       </c>
+      <c r="D5">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
       <c r="E5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>ddbb14ca-d099-409a-a635-ed98491843ca</v>
       </c>
       <c r="F5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -1177,12 +1175,16 @@
       <c r="C6" t="s">
         <v>3</v>
       </c>
+      <c r="D6">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
       <c r="E6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>ddbb14ca-d099-409a-a635-ed98491843ca</v>
       </c>
       <c r="F6" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -1195,12 +1197,16 @@
       <c r="C7" t="s">
         <v>6</v>
       </c>
+      <c r="D7">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
       <c r="E7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>ddbb14ca-d099-409a-a635-ed98491843ca</v>
       </c>
       <c r="F7" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -1213,12 +1219,16 @@
       <c r="C8" t="s">
         <v>3</v>
       </c>
+      <c r="D8">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
       <c r="E8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>ddbb14ca-d099-409a-a635-ed98491843ca</v>
       </c>
       <c r="F8" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -1231,12 +1241,16 @@
       <c r="C9" t="s">
         <v>3</v>
       </c>
+      <c r="D9">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
       <c r="E9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>ddbb14ca-d099-409a-a635-ed98491843ca</v>
       </c>
       <c r="F9" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -1249,12 +1263,16 @@
       <c r="C10" t="s">
         <v>5</v>
       </c>
+      <c r="D10">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
       <c r="E10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>ddbb14ca-d099-409a-a635-ed98491843ca</v>
       </c>
       <c r="F10" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -1267,12 +1285,16 @@
       <c r="C11" t="s">
         <v>5</v>
       </c>
+      <c r="D11">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
       <c r="E11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>ddbb14ca-d099-409a-a635-ed98491843ca</v>
       </c>
       <c r="F11" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -1285,12 +1307,16 @@
       <c r="C12" t="s">
         <v>5</v>
       </c>
+      <c r="D12">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
       <c r="E12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>ddbb14ca-d099-409a-a635-ed98491843ca</v>
       </c>
       <c r="F12" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -1303,12 +1329,16 @@
       <c r="C13" t="s">
         <v>5</v>
       </c>
+      <c r="D13">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
       <c r="E13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>ddbb14ca-d099-409a-a635-ed98491843ca</v>
       </c>
       <c r="F13" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -1321,12 +1351,16 @@
       <c r="C14" t="s">
         <v>5</v>
       </c>
+      <c r="D14">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
       <c r="E14" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>ddbb14ca-d099-409a-a635-ed98491843ca</v>
       </c>
       <c r="F14" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -1339,12 +1373,16 @@
       <c r="C15" t="s">
         <v>3</v>
       </c>
+      <c r="D15">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
       <c r="E15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>ddbb14ca-d099-409a-a635-ed98491843ca</v>
       </c>
       <c r="F15" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -1357,12 +1395,16 @@
       <c r="C16" t="s">
         <v>4</v>
       </c>
+      <c r="D16">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
       <c r="E16" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>ddbb14ca-d099-409a-a635-ed98491843ca</v>
       </c>
       <c r="F16" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -1375,12 +1417,16 @@
       <c r="C17" t="s">
         <v>4</v>
       </c>
+      <c r="D17">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
       <c r="E17" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>ddbb14ca-d099-409a-a635-ed98491843ca</v>
       </c>
       <c r="F17" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -1393,12 +1439,16 @@
       <c r="C18" t="s">
         <v>3</v>
       </c>
+      <c r="D18">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
       <c r="E18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>ddbb14ca-d099-409a-a635-ed98491843ca</v>
       </c>
       <c r="F18" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -1411,12 +1461,16 @@
       <c r="C19" t="s">
         <v>5</v>
       </c>
+      <c r="D19">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
       <c r="E19" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>ddbb14ca-d099-409a-a635-ed98491843ca</v>
       </c>
       <c r="F19" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -1429,12 +1483,16 @@
       <c r="C20" t="s">
         <v>4</v>
       </c>
+      <c r="D20">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
       <c r="E20" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>ddbb14ca-d099-409a-a635-ed98491843ca</v>
       </c>
       <c r="F20" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -1447,12 +1505,16 @@
       <c r="C21" t="s">
         <v>6</v>
       </c>
+      <c r="D21">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
       <c r="E21" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>ddbb14ca-d099-409a-a635-ed98491843ca</v>
       </c>
       <c r="F21" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -1465,17 +1527,18 @@
       <c r="C22" t="s">
         <v>3</v>
       </c>
-      <c r="D22" t="s">
-        <v>17</v>
+      <c r="D22">
+        <f ca="1">D2</f>
+        <v>4</v>
       </c>
       <c r="E22" t="s">
         <v>8</v>
       </c>
       <c r="F22" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G22" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -1487,13 +1550,17 @@
       </c>
       <c r="C23" t="s">
         <v>4</v>
+      </c>
+      <c r="D23">
+        <f t="shared" ref="D23:D87" ca="1" si="2">D3</f>
+        <v>1</v>
       </c>
       <c r="E23" t="str">
         <f>$E22</f>
         <v>b2bcc1e7-e3a6-495e-a494-8ea1e47473bf</v>
       </c>
       <c r="F23" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -1506,12 +1573,16 @@
       <c r="C24" t="s">
         <v>5</v>
       </c>
+      <c r="D24">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
       <c r="E24" t="str">
-        <f t="shared" ref="E24:E41" si="1">$E23</f>
+        <f t="shared" ref="E24:E41" si="3">$E23</f>
         <v>b2bcc1e7-e3a6-495e-a494-8ea1e47473bf</v>
       </c>
       <c r="F24" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -1524,12 +1595,16 @@
       <c r="C25" t="s">
         <v>3</v>
       </c>
+      <c r="D25">
+        <f t="shared" ca="1" si="2"/>
+        <v>5</v>
+      </c>
       <c r="E25" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>b2bcc1e7-e3a6-495e-a494-8ea1e47473bf</v>
       </c>
       <c r="F25" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -1542,12 +1617,16 @@
       <c r="C26" t="s">
         <v>3</v>
       </c>
+      <c r="D26">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
       <c r="E26" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>b2bcc1e7-e3a6-495e-a494-8ea1e47473bf</v>
       </c>
       <c r="F26" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -1560,12 +1639,16 @@
       <c r="C27" t="s">
         <v>6</v>
       </c>
+      <c r="D27">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
       <c r="E27" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>b2bcc1e7-e3a6-495e-a494-8ea1e47473bf</v>
       </c>
       <c r="F27" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -1578,12 +1661,16 @@
       <c r="C28" t="s">
         <v>3</v>
       </c>
+      <c r="D28">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
       <c r="E28" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>b2bcc1e7-e3a6-495e-a494-8ea1e47473bf</v>
       </c>
       <c r="F28" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -1596,12 +1683,16 @@
       <c r="C29" t="s">
         <v>3</v>
       </c>
+      <c r="D29">
+        <f t="shared" ca="1" si="2"/>
+        <v>5</v>
+      </c>
       <c r="E29" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>b2bcc1e7-e3a6-495e-a494-8ea1e47473bf</v>
       </c>
       <c r="F29" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -1614,12 +1705,16 @@
       <c r="C30" t="s">
         <v>5</v>
       </c>
+      <c r="D30">
+        <f t="shared" ca="1" si="2"/>
+        <v>5</v>
+      </c>
       <c r="E30" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>b2bcc1e7-e3a6-495e-a494-8ea1e47473bf</v>
       </c>
       <c r="F30" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -1632,12 +1727,16 @@
       <c r="C31" t="s">
         <v>5</v>
       </c>
+      <c r="D31">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
       <c r="E31" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>b2bcc1e7-e3a6-495e-a494-8ea1e47473bf</v>
       </c>
       <c r="F31" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -1650,12 +1749,16 @@
       <c r="C32" t="s">
         <v>5</v>
       </c>
+      <c r="D32">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
       <c r="E32" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>b2bcc1e7-e3a6-495e-a494-8ea1e47473bf</v>
       </c>
       <c r="F32" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -1668,12 +1771,16 @@
       <c r="C33" t="s">
         <v>5</v>
       </c>
+      <c r="D33">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
       <c r="E33" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>b2bcc1e7-e3a6-495e-a494-8ea1e47473bf</v>
       </c>
       <c r="F33" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -1686,12 +1793,16 @@
       <c r="C34" t="s">
         <v>5</v>
       </c>
+      <c r="D34">
+        <f ca="1">D14</f>
+        <v>1</v>
+      </c>
       <c r="E34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>b2bcc1e7-e3a6-495e-a494-8ea1e47473bf</v>
       </c>
       <c r="F34" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -1704,12 +1815,16 @@
       <c r="C35" t="s">
         <v>3</v>
       </c>
+      <c r="D35">
+        <f t="shared" ca="1" si="2"/>
+        <v>5</v>
+      </c>
       <c r="E35" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>b2bcc1e7-e3a6-495e-a494-8ea1e47473bf</v>
       </c>
       <c r="F35" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -1722,12 +1837,16 @@
       <c r="C36" t="s">
         <v>4</v>
       </c>
+      <c r="D36">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
       <c r="E36" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>b2bcc1e7-e3a6-495e-a494-8ea1e47473bf</v>
       </c>
       <c r="F36" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -1740,12 +1859,16 @@
       <c r="C37" t="s">
         <v>4</v>
       </c>
+      <c r="D37">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
       <c r="E37" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>b2bcc1e7-e3a6-495e-a494-8ea1e47473bf</v>
       </c>
       <c r="F37" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -1758,12 +1881,16 @@
       <c r="C38" t="s">
         <v>3</v>
       </c>
+      <c r="D38">
+        <f t="shared" ca="1" si="2"/>
+        <v>5</v>
+      </c>
       <c r="E38" t="str">
         <f>$E37</f>
         <v>b2bcc1e7-e3a6-495e-a494-8ea1e47473bf</v>
       </c>
       <c r="F38" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -1776,12 +1903,16 @@
       <c r="C39" t="s">
         <v>5</v>
       </c>
+      <c r="D39">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
       <c r="E39" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>b2bcc1e7-e3a6-495e-a494-8ea1e47473bf</v>
       </c>
       <c r="F39" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -1794,12 +1925,16 @@
       <c r="C40" t="s">
         <v>4</v>
       </c>
+      <c r="D40">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
       <c r="E40" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>b2bcc1e7-e3a6-495e-a494-8ea1e47473bf</v>
       </c>
       <c r="F40" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -1812,12 +1947,16 @@
       <c r="C41" t="s">
         <v>6</v>
       </c>
+      <c r="D41">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
       <c r="E41" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>b2bcc1e7-e3a6-495e-a494-8ea1e47473bf</v>
       </c>
       <c r="F41" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -1830,11 +1969,15 @@
       <c r="C42" t="s">
         <v>3</v>
       </c>
+      <c r="D42">
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
+      </c>
       <c r="E42" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F42" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -1846,13 +1989,17 @@
       </c>
       <c r="C43" t="s">
         <v>4</v>
+      </c>
+      <c r="D43">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
       </c>
       <c r="E43" s="1" t="str">
         <f>$E42</f>
         <v>18e0672b-e749-4965-b3f7-8bfda0aa23e5</v>
       </c>
       <c r="F43" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -1865,12 +2012,16 @@
       <c r="C44" t="s">
         <v>5</v>
       </c>
+      <c r="D44">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
       <c r="E44" s="1" t="str">
-        <f t="shared" ref="E44:E61" si="2">$E43</f>
+        <f t="shared" ref="E44:E61" si="4">$E43</f>
         <v>18e0672b-e749-4965-b3f7-8bfda0aa23e5</v>
       </c>
       <c r="F44" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -1883,12 +2034,16 @@
       <c r="C45" t="s">
         <v>3</v>
       </c>
+      <c r="D45">
+        <f t="shared" ca="1" si="2"/>
+        <v>5</v>
+      </c>
       <c r="E45" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>18e0672b-e749-4965-b3f7-8bfda0aa23e5</v>
       </c>
       <c r="F45" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -1901,12 +2056,16 @@
       <c r="C46" t="s">
         <v>3</v>
       </c>
+      <c r="D46">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
       <c r="E46" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>18e0672b-e749-4965-b3f7-8bfda0aa23e5</v>
       </c>
       <c r="F46" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -1919,18 +2078,19 @@
       <c r="C47" t="s">
         <v>6</v>
       </c>
-      <c r="D47" t="s">
-        <v>18</v>
+      <c r="D47">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
       </c>
       <c r="E47" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>18e0672b-e749-4965-b3f7-8bfda0aa23e5</v>
       </c>
       <c r="F47" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="G47" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -1943,12 +2103,16 @@
       <c r="C48" t="s">
         <v>3</v>
       </c>
+      <c r="D48">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
       <c r="E48" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>18e0672b-e749-4965-b3f7-8bfda0aa23e5</v>
       </c>
       <c r="F48" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -1961,12 +2125,16 @@
       <c r="C49" t="s">
         <v>3</v>
       </c>
+      <c r="D49">
+        <f t="shared" ca="1" si="2"/>
+        <v>5</v>
+      </c>
       <c r="E49" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>18e0672b-e749-4965-b3f7-8bfda0aa23e5</v>
       </c>
       <c r="F49" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -1979,12 +2147,16 @@
       <c r="C50" t="s">
         <v>5</v>
       </c>
+      <c r="D50">
+        <f t="shared" ca="1" si="2"/>
+        <v>5</v>
+      </c>
       <c r="E50" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>18e0672b-e749-4965-b3f7-8bfda0aa23e5</v>
       </c>
       <c r="F50" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -1997,12 +2169,16 @@
       <c r="C51" t="s">
         <v>5</v>
       </c>
+      <c r="D51">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
       <c r="E51" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>18e0672b-e749-4965-b3f7-8bfda0aa23e5</v>
       </c>
       <c r="F51" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -2015,12 +2191,16 @@
       <c r="C52" t="s">
         <v>5</v>
       </c>
+      <c r="D52">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
       <c r="E52" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>18e0672b-e749-4965-b3f7-8bfda0aa23e5</v>
       </c>
       <c r="F52" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -2033,12 +2213,16 @@
       <c r="C53" t="s">
         <v>5</v>
       </c>
+      <c r="D53">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
       <c r="E53" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>18e0672b-e749-4965-b3f7-8bfda0aa23e5</v>
       </c>
       <c r="F53" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -2051,12 +2235,16 @@
       <c r="C54" t="s">
         <v>5</v>
       </c>
+      <c r="D54">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
       <c r="E54" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>18e0672b-e749-4965-b3f7-8bfda0aa23e5</v>
       </c>
       <c r="F54" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -2069,12 +2257,16 @@
       <c r="C55" t="s">
         <v>3</v>
       </c>
+      <c r="D55">
+        <f t="shared" ca="1" si="2"/>
+        <v>5</v>
+      </c>
       <c r="E55" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>18e0672b-e749-4965-b3f7-8bfda0aa23e5</v>
       </c>
       <c r="F55" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
@@ -2087,12 +2279,16 @@
       <c r="C56" t="s">
         <v>4</v>
       </c>
+      <c r="D56">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
       <c r="E56" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>18e0672b-e749-4965-b3f7-8bfda0aa23e5</v>
       </c>
       <c r="F56" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -2105,12 +2301,16 @@
       <c r="C57" t="s">
         <v>4</v>
       </c>
+      <c r="D57">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
       <c r="E57" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>18e0672b-e749-4965-b3f7-8bfda0aa23e5</v>
       </c>
       <c r="F57" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
@@ -2123,12 +2323,16 @@
       <c r="C58" t="s">
         <v>3</v>
       </c>
+      <c r="D58">
+        <f t="shared" ca="1" si="2"/>
+        <v>5</v>
+      </c>
       <c r="E58" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>18e0672b-e749-4965-b3f7-8bfda0aa23e5</v>
       </c>
       <c r="F58" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
@@ -2141,12 +2345,16 @@
       <c r="C59" t="s">
         <v>5</v>
       </c>
+      <c r="D59">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
       <c r="E59" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>18e0672b-e749-4965-b3f7-8bfda0aa23e5</v>
       </c>
       <c r="F59" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
@@ -2159,12 +2367,16 @@
       <c r="C60" t="s">
         <v>4</v>
       </c>
+      <c r="D60">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
       <c r="E60" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>18e0672b-e749-4965-b3f7-8bfda0aa23e5</v>
       </c>
       <c r="F60" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
@@ -2177,12 +2389,16 @@
       <c r="C61" t="s">
         <v>6</v>
       </c>
+      <c r="D61">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
       <c r="E61" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>18e0672b-e749-4965-b3f7-8bfda0aa23e5</v>
       </c>
       <c r="F61" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
@@ -2195,17 +2411,18 @@
       <c r="C62" t="s">
         <v>3</v>
       </c>
-      <c r="D62" t="s">
-        <v>20</v>
+      <c r="D62">
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
       </c>
       <c r="E62" t="s">
         <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G62" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
@@ -2218,11 +2435,15 @@
       <c r="C63" t="s">
         <v>4</v>
       </c>
+      <c r="D63">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
       <c r="E63" t="s">
         <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
@@ -2235,11 +2456,15 @@
       <c r="C64" t="s">
         <v>5</v>
       </c>
+      <c r="D64">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
       <c r="E64" t="s">
         <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -2252,11 +2477,15 @@
       <c r="C65" t="s">
         <v>3</v>
       </c>
+      <c r="D65">
+        <f t="shared" ca="1" si="2"/>
+        <v>5</v>
+      </c>
       <c r="E65" t="s">
         <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -2269,11 +2498,15 @@
       <c r="C66" t="s">
         <v>3</v>
       </c>
+      <c r="D66">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
       <c r="E66" t="s">
         <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -2286,11 +2519,15 @@
       <c r="C67" t="s">
         <v>6</v>
       </c>
+      <c r="D67">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
       <c r="E67" t="s">
         <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -2303,11 +2540,15 @@
       <c r="C68" t="s">
         <v>3</v>
       </c>
+      <c r="D68">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
       <c r="E68" t="s">
         <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -2320,11 +2561,15 @@
       <c r="C69" t="s">
         <v>3</v>
       </c>
+      <c r="D69">
+        <f t="shared" ca="1" si="2"/>
+        <v>5</v>
+      </c>
       <c r="E69" t="s">
         <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -2337,11 +2582,15 @@
       <c r="C70" t="s">
         <v>5</v>
       </c>
+      <c r="D70">
+        <f t="shared" ca="1" si="2"/>
+        <v>5</v>
+      </c>
       <c r="E70" t="s">
         <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -2354,11 +2603,15 @@
       <c r="C71" t="s">
         <v>5</v>
       </c>
+      <c r="D71">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
       <c r="E71" t="s">
         <v>12</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -2371,11 +2624,15 @@
       <c r="C72" t="s">
         <v>5</v>
       </c>
+      <c r="D72">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
       <c r="E72" t="s">
         <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -2388,11 +2645,15 @@
       <c r="C73" t="s">
         <v>5</v>
       </c>
+      <c r="D73">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
       <c r="E73" t="s">
         <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -2405,11 +2666,15 @@
       <c r="C74" t="s">
         <v>5</v>
       </c>
+      <c r="D74">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
       <c r="E74" t="s">
         <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -2422,11 +2687,15 @@
       <c r="C75" t="s">
         <v>3</v>
       </c>
+      <c r="D75">
+        <f t="shared" ca="1" si="2"/>
+        <v>5</v>
+      </c>
       <c r="E75" t="s">
         <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -2439,11 +2708,15 @@
       <c r="C76" t="s">
         <v>4</v>
       </c>
+      <c r="D76">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
       <c r="E76" t="s">
         <v>12</v>
       </c>
       <c r="F76" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -2456,11 +2729,15 @@
       <c r="C77" t="s">
         <v>4</v>
       </c>
+      <c r="D77">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
       <c r="E77" t="s">
         <v>12</v>
       </c>
       <c r="F77" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -2473,11 +2750,15 @@
       <c r="C78" t="s">
         <v>3</v>
       </c>
+      <c r="D78">
+        <f t="shared" ca="1" si="2"/>
+        <v>5</v>
+      </c>
       <c r="E78" t="s">
         <v>12</v>
       </c>
       <c r="F78" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -2490,11 +2771,15 @@
       <c r="C79" t="s">
         <v>5</v>
       </c>
+      <c r="D79">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
       <c r="E79" t="s">
         <v>12</v>
       </c>
       <c r="F79" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -2507,11 +2792,15 @@
       <c r="C80" t="s">
         <v>4</v>
       </c>
+      <c r="D80">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
       <c r="E80" t="s">
         <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
@@ -2524,11 +2813,15 @@
       <c r="C81" t="s">
         <v>6</v>
       </c>
+      <c r="D81">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
       <c r="E81" t="s">
         <v>12</v>
       </c>
       <c r="F81" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
@@ -2541,11 +2834,15 @@
       <c r="C82" t="s">
         <v>3</v>
       </c>
+      <c r="D82">
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
+      </c>
       <c r="E82" t="s">
         <v>14</v>
       </c>
       <c r="F82" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
@@ -2558,11 +2855,15 @@
       <c r="C83" t="s">
         <v>4</v>
       </c>
+      <c r="D83">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
       <c r="E83" t="s">
         <v>14</v>
       </c>
       <c r="F83" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
@@ -2575,11 +2876,15 @@
       <c r="C84" t="s">
         <v>5</v>
       </c>
+      <c r="D84">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
       <c r="E84" t="s">
         <v>14</v>
       </c>
       <c r="F84" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
@@ -2592,11 +2897,15 @@
       <c r="C85" t="s">
         <v>3</v>
       </c>
+      <c r="D85">
+        <f t="shared" ca="1" si="2"/>
+        <v>5</v>
+      </c>
       <c r="E85" t="s">
         <v>14</v>
       </c>
       <c r="F85" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
@@ -2609,11 +2918,15 @@
       <c r="C86" t="s">
         <v>3</v>
       </c>
+      <c r="D86">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
       <c r="E86" t="s">
         <v>14</v>
       </c>
       <c r="F86" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
@@ -2626,11 +2939,15 @@
       <c r="C87" t="s">
         <v>6</v>
       </c>
+      <c r="D87">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
       <c r="E87" t="s">
         <v>14</v>
       </c>
       <c r="F87" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -2643,11 +2960,15 @@
       <c r="C88" t="s">
         <v>3</v>
       </c>
+      <c r="D88">
+        <f t="shared" ref="D88:D151" ca="1" si="5">D68</f>
+        <v>3</v>
+      </c>
       <c r="E88" t="s">
         <v>14</v>
       </c>
       <c r="F88" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
@@ -2660,11 +2981,15 @@
       <c r="C89" t="s">
         <v>3</v>
       </c>
+      <c r="D89">
+        <f t="shared" ca="1" si="5"/>
+        <v>5</v>
+      </c>
       <c r="E89" t="s">
         <v>14</v>
       </c>
       <c r="F89" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
@@ -2677,11 +3002,15 @@
       <c r="C90" t="s">
         <v>5</v>
       </c>
+      <c r="D90">
+        <f t="shared" ca="1" si="5"/>
+        <v>5</v>
+      </c>
       <c r="E90" t="s">
         <v>14</v>
       </c>
       <c r="F90" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
@@ -2694,11 +3023,15 @@
       <c r="C91" t="s">
         <v>5</v>
       </c>
+      <c r="D91">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
       <c r="E91" t="s">
         <v>14</v>
       </c>
       <c r="F91" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
@@ -2711,11 +3044,15 @@
       <c r="C92" t="s">
         <v>5</v>
       </c>
+      <c r="D92">
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
+      </c>
       <c r="E92" t="s">
         <v>14</v>
       </c>
       <c r="F92" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
@@ -2728,11 +3065,15 @@
       <c r="C93" t="s">
         <v>5</v>
       </c>
+      <c r="D93">
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
+      </c>
       <c r="E93" t="s">
         <v>14</v>
       </c>
       <c r="F93" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
@@ -2745,11 +3086,15 @@
       <c r="C94" t="s">
         <v>5</v>
       </c>
+      <c r="D94">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
       <c r="E94" t="s">
         <v>14</v>
       </c>
       <c r="F94" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
@@ -2762,11 +3107,15 @@
       <c r="C95" t="s">
         <v>3</v>
       </c>
+      <c r="D95">
+        <f t="shared" ca="1" si="5"/>
+        <v>5</v>
+      </c>
       <c r="E95" t="s">
         <v>14</v>
       </c>
       <c r="F95" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
@@ -2779,11 +3128,15 @@
       <c r="C96" t="s">
         <v>4</v>
       </c>
+      <c r="D96">
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
+      </c>
       <c r="E96" t="s">
         <v>14</v>
       </c>
       <c r="F96" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
@@ -2796,11 +3149,15 @@
       <c r="C97" t="s">
         <v>4</v>
       </c>
+      <c r="D97">
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
+      </c>
       <c r="E97" t="s">
         <v>14</v>
       </c>
       <c r="F97" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
@@ -2813,11 +3170,15 @@
       <c r="C98" t="s">
         <v>3</v>
       </c>
+      <c r="D98">
+        <f t="shared" ca="1" si="5"/>
+        <v>5</v>
+      </c>
       <c r="E98" t="s">
         <v>14</v>
       </c>
       <c r="F98" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
@@ -2830,11 +3191,15 @@
       <c r="C99" t="s">
         <v>5</v>
       </c>
+      <c r="D99">
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
+      </c>
       <c r="E99" t="s">
         <v>14</v>
       </c>
       <c r="F99" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
@@ -2847,11 +3212,15 @@
       <c r="C100" t="s">
         <v>4</v>
       </c>
+      <c r="D100">
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
+      </c>
       <c r="E100" t="s">
         <v>14</v>
       </c>
       <c r="F100" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
@@ -2864,11 +3233,15 @@
       <c r="C101" t="s">
         <v>6</v>
       </c>
+      <c r="D101">
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
+      </c>
       <c r="E101" t="s">
         <v>14</v>
       </c>
       <c r="F101" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
@@ -2881,11 +3254,15 @@
       <c r="C102" t="s">
         <v>3</v>
       </c>
+      <c r="D102">
+        <f t="shared" ca="1" si="5"/>
+        <v>4</v>
+      </c>
       <c r="E102" t="s">
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
@@ -2897,13 +3274,17 @@
       </c>
       <c r="C103" t="s">
         <v>4</v>
+      </c>
+      <c r="D103">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
       </c>
       <c r="E103" t="str">
         <f>$E102</f>
         <v>18050643-b157-423a-af39-0a2513341892</v>
       </c>
       <c r="F103" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
@@ -2916,12 +3297,16 @@
       <c r="C104" t="s">
         <v>5</v>
       </c>
+      <c r="D104">
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
+      </c>
       <c r="E104" t="str">
-        <f t="shared" ref="E104:E121" si="3">$E103</f>
+        <f t="shared" ref="E104:E121" si="6">$E103</f>
         <v>18050643-b157-423a-af39-0a2513341892</v>
       </c>
       <c r="F104" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
@@ -2934,12 +3319,16 @@
       <c r="C105" t="s">
         <v>3</v>
       </c>
+      <c r="D105">
+        <f t="shared" ca="1" si="5"/>
+        <v>5</v>
+      </c>
       <c r="E105" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>18050643-b157-423a-af39-0a2513341892</v>
       </c>
       <c r="F105" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
@@ -2952,12 +3341,16 @@
       <c r="C106" t="s">
         <v>3</v>
       </c>
+      <c r="D106">
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
+      </c>
       <c r="E106" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>18050643-b157-423a-af39-0a2513341892</v>
       </c>
       <c r="F106" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
@@ -2970,18 +3363,19 @@
       <c r="C107" t="s">
         <v>6</v>
       </c>
-      <c r="D107" t="s">
-        <v>19</v>
+      <c r="D107">
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
       </c>
       <c r="E107" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>18050643-b157-423a-af39-0a2513341892</v>
       </c>
       <c r="F107" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="G107" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
@@ -2994,12 +3388,16 @@
       <c r="C108" t="s">
         <v>3</v>
       </c>
+      <c r="D108">
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
+      </c>
       <c r="E108" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>18050643-b157-423a-af39-0a2513341892</v>
       </c>
       <c r="F108" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
@@ -3012,12 +3410,16 @@
       <c r="C109" t="s">
         <v>3</v>
       </c>
+      <c r="D109">
+        <f t="shared" ca="1" si="5"/>
+        <v>5</v>
+      </c>
       <c r="E109" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>18050643-b157-423a-af39-0a2513341892</v>
       </c>
       <c r="F109" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
@@ -3030,12 +3432,16 @@
       <c r="C110" t="s">
         <v>5</v>
       </c>
+      <c r="D110">
+        <f t="shared" ca="1" si="5"/>
+        <v>5</v>
+      </c>
       <c r="E110" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>18050643-b157-423a-af39-0a2513341892</v>
       </c>
       <c r="F110" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
@@ -3048,12 +3454,16 @@
       <c r="C111" t="s">
         <v>5</v>
       </c>
+      <c r="D111">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
       <c r="E111" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>18050643-b157-423a-af39-0a2513341892</v>
       </c>
       <c r="F111" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
@@ -3066,12 +3476,16 @@
       <c r="C112" t="s">
         <v>5</v>
       </c>
+      <c r="D112">
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
+      </c>
       <c r="E112" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>18050643-b157-423a-af39-0a2513341892</v>
       </c>
       <c r="F112" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
@@ -3084,12 +3498,16 @@
       <c r="C113" t="s">
         <v>5</v>
       </c>
+      <c r="D113">
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
+      </c>
       <c r="E113" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>18050643-b157-423a-af39-0a2513341892</v>
       </c>
       <c r="F113" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
@@ -3102,12 +3520,16 @@
       <c r="C114" t="s">
         <v>5</v>
       </c>
+      <c r="D114">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
       <c r="E114" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>18050643-b157-423a-af39-0a2513341892</v>
       </c>
       <c r="F114" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
@@ -3120,12 +3542,16 @@
       <c r="C115" t="s">
         <v>3</v>
       </c>
+      <c r="D115">
+        <f t="shared" ca="1" si="5"/>
+        <v>5</v>
+      </c>
       <c r="E115" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>18050643-b157-423a-af39-0a2513341892</v>
       </c>
       <c r="F115" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
@@ -3138,12 +3564,16 @@
       <c r="C116" t="s">
         <v>4</v>
       </c>
+      <c r="D116">
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
+      </c>
       <c r="E116" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>18050643-b157-423a-af39-0a2513341892</v>
       </c>
       <c r="F116" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
@@ -3156,12 +3586,16 @@
       <c r="C117" t="s">
         <v>4</v>
       </c>
+      <c r="D117">
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
+      </c>
       <c r="E117" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>18050643-b157-423a-af39-0a2513341892</v>
       </c>
       <c r="F117" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
@@ -3174,12 +3608,16 @@
       <c r="C118" t="s">
         <v>3</v>
       </c>
+      <c r="D118">
+        <f t="shared" ca="1" si="5"/>
+        <v>5</v>
+      </c>
       <c r="E118" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>18050643-b157-423a-af39-0a2513341892</v>
       </c>
       <c r="F118" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
@@ -3192,12 +3630,16 @@
       <c r="C119" t="s">
         <v>5</v>
       </c>
+      <c r="D119">
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
+      </c>
       <c r="E119" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>18050643-b157-423a-af39-0a2513341892</v>
       </c>
       <c r="F119" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
@@ -3210,12 +3652,16 @@
       <c r="C120" t="s">
         <v>4</v>
       </c>
+      <c r="D120">
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
+      </c>
       <c r="E120" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>18050643-b157-423a-af39-0a2513341892</v>
       </c>
       <c r="F120" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
@@ -3228,12 +3674,16 @@
       <c r="C121" t="s">
         <v>6</v>
       </c>
+      <c r="D121">
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
+      </c>
       <c r="E121" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>18050643-b157-423a-af39-0a2513341892</v>
       </c>
       <c r="F121" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
@@ -3246,11 +3696,15 @@
       <c r="C122" t="s">
         <v>3</v>
       </c>
+      <c r="D122">
+        <f t="shared" ca="1" si="5"/>
+        <v>4</v>
+      </c>
       <c r="E122" t="s">
         <v>15</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
@@ -3262,13 +3716,17 @@
       </c>
       <c r="C123" t="s">
         <v>4</v>
+      </c>
+      <c r="D123">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
       </c>
       <c r="E123" t="str">
         <f>$E122</f>
         <v>387b9d46-464f-4a18-8dec-31423728f0e6</v>
       </c>
       <c r="F123" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
@@ -3281,12 +3739,16 @@
       <c r="C124" t="s">
         <v>5</v>
       </c>
+      <c r="D124">
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
+      </c>
       <c r="E124" t="str">
-        <f t="shared" ref="E124:E141" si="4">$E123</f>
+        <f t="shared" ref="E124:E141" si="7">$E123</f>
         <v>387b9d46-464f-4a18-8dec-31423728f0e6</v>
       </c>
       <c r="F124" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
@@ -3299,12 +3761,16 @@
       <c r="C125" t="s">
         <v>3</v>
       </c>
+      <c r="D125">
+        <f t="shared" ca="1" si="5"/>
+        <v>5</v>
+      </c>
       <c r="E125" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>387b9d46-464f-4a18-8dec-31423728f0e6</v>
       </c>
       <c r="F125" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
@@ -3317,12 +3783,16 @@
       <c r="C126" t="s">
         <v>3</v>
       </c>
+      <c r="D126">
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
+      </c>
       <c r="E126" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>387b9d46-464f-4a18-8dec-31423728f0e6</v>
       </c>
       <c r="F126" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
@@ -3335,12 +3805,16 @@
       <c r="C127" t="s">
         <v>6</v>
       </c>
+      <c r="D127">
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
+      </c>
       <c r="E127" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>387b9d46-464f-4a18-8dec-31423728f0e6</v>
       </c>
       <c r="F127" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
@@ -3353,12 +3827,16 @@
       <c r="C128" t="s">
         <v>3</v>
       </c>
+      <c r="D128">
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
+      </c>
       <c r="E128" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>387b9d46-464f-4a18-8dec-31423728f0e6</v>
       </c>
       <c r="F128" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
@@ -3371,12 +3849,16 @@
       <c r="C129" t="s">
         <v>3</v>
       </c>
+      <c r="D129">
+        <f t="shared" ca="1" si="5"/>
+        <v>5</v>
+      </c>
       <c r="E129" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>387b9d46-464f-4a18-8dec-31423728f0e6</v>
       </c>
       <c r="F129" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
@@ -3389,12 +3871,16 @@
       <c r="C130" t="s">
         <v>5</v>
       </c>
+      <c r="D130">
+        <f t="shared" ca="1" si="5"/>
+        <v>5</v>
+      </c>
       <c r="E130" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>387b9d46-464f-4a18-8dec-31423728f0e6</v>
       </c>
       <c r="F130" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
@@ -3407,12 +3893,16 @@
       <c r="C131" t="s">
         <v>5</v>
       </c>
+      <c r="D131">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
       <c r="E131" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>387b9d46-464f-4a18-8dec-31423728f0e6</v>
       </c>
       <c r="F131" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
@@ -3425,12 +3915,16 @@
       <c r="C132" t="s">
         <v>5</v>
       </c>
+      <c r="D132">
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
+      </c>
       <c r="E132" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>387b9d46-464f-4a18-8dec-31423728f0e6</v>
       </c>
       <c r="F132" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
@@ -3443,12 +3937,16 @@
       <c r="C133" t="s">
         <v>5</v>
       </c>
+      <c r="D133">
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
+      </c>
       <c r="E133" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>387b9d46-464f-4a18-8dec-31423728f0e6</v>
       </c>
       <c r="F133" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
@@ -3461,12 +3959,16 @@
       <c r="C134" t="s">
         <v>5</v>
       </c>
+      <c r="D134">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
       <c r="E134" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>387b9d46-464f-4a18-8dec-31423728f0e6</v>
       </c>
       <c r="F134" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
@@ -3479,12 +3981,16 @@
       <c r="C135" t="s">
         <v>3</v>
       </c>
+      <c r="D135">
+        <f t="shared" ca="1" si="5"/>
+        <v>5</v>
+      </c>
       <c r="E135" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>387b9d46-464f-4a18-8dec-31423728f0e6</v>
       </c>
       <c r="F135" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
@@ -3497,12 +4003,16 @@
       <c r="C136" t="s">
         <v>4</v>
       </c>
+      <c r="D136">
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
+      </c>
       <c r="E136" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>387b9d46-464f-4a18-8dec-31423728f0e6</v>
       </c>
       <c r="F136" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
@@ -3515,12 +4025,16 @@
       <c r="C137" t="s">
         <v>4</v>
       </c>
+      <c r="D137">
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
+      </c>
       <c r="E137" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>387b9d46-464f-4a18-8dec-31423728f0e6</v>
       </c>
       <c r="F137" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
@@ -3533,12 +4047,16 @@
       <c r="C138" t="s">
         <v>3</v>
       </c>
+      <c r="D138">
+        <f t="shared" ca="1" si="5"/>
+        <v>5</v>
+      </c>
       <c r="E138" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>387b9d46-464f-4a18-8dec-31423728f0e6</v>
       </c>
       <c r="F138" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
@@ -3551,12 +4069,16 @@
       <c r="C139" t="s">
         <v>5</v>
       </c>
+      <c r="D139">
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
+      </c>
       <c r="E139" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>387b9d46-464f-4a18-8dec-31423728f0e6</v>
       </c>
       <c r="F139" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
@@ -3569,12 +4091,16 @@
       <c r="C140" t="s">
         <v>4</v>
       </c>
+      <c r="D140">
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
+      </c>
       <c r="E140" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>387b9d46-464f-4a18-8dec-31423728f0e6</v>
       </c>
       <c r="F140" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
@@ -3587,12 +4113,16 @@
       <c r="C141" t="s">
         <v>6</v>
       </c>
+      <c r="D141">
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
+      </c>
       <c r="E141" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>387b9d46-464f-4a18-8dec-31423728f0e6</v>
       </c>
       <c r="F141" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
@@ -3605,11 +4135,15 @@
       <c r="C142" t="s">
         <v>3</v>
       </c>
+      <c r="D142">
+        <f t="shared" ca="1" si="5"/>
+        <v>4</v>
+      </c>
       <c r="E142" t="s">
         <v>7</v>
       </c>
       <c r="F142" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
@@ -3622,17 +4156,18 @@
       <c r="C143" t="s">
         <v>4</v>
       </c>
-      <c r="D143" t="s">
-        <v>16</v>
+      <c r="D143">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
       </c>
       <c r="E143" t="s">
         <v>7</v>
       </c>
       <c r="F143" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="G143" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
@@ -3645,11 +4180,15 @@
       <c r="C144" t="s">
         <v>5</v>
       </c>
+      <c r="D144">
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
+      </c>
       <c r="E144" t="s">
         <v>7</v>
       </c>
       <c r="F144" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
@@ -3662,11 +4201,15 @@
       <c r="C145" t="s">
         <v>3</v>
       </c>
+      <c r="D145">
+        <f t="shared" ca="1" si="5"/>
+        <v>5</v>
+      </c>
       <c r="E145" t="s">
         <v>7</v>
       </c>
       <c r="F145" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
@@ -3679,17 +4222,18 @@
       <c r="C146" t="s">
         <v>3</v>
       </c>
-      <c r="D146" t="s">
-        <v>21</v>
+      <c r="D146">
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
       </c>
       <c r="E146" t="s">
         <v>7</v>
       </c>
       <c r="F146" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="G146" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
@@ -3702,11 +4246,15 @@
       <c r="C147" t="s">
         <v>6</v>
       </c>
+      <c r="D147">
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
+      </c>
       <c r="E147" t="s">
         <v>7</v>
       </c>
       <c r="F147" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
@@ -3719,11 +4267,15 @@
       <c r="C148" t="s">
         <v>3</v>
       </c>
+      <c r="D148">
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
+      </c>
       <c r="E148" t="s">
         <v>7</v>
       </c>
       <c r="F148" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
@@ -3736,11 +4288,15 @@
       <c r="C149" t="s">
         <v>3</v>
       </c>
+      <c r="D149">
+        <f t="shared" ca="1" si="5"/>
+        <v>5</v>
+      </c>
       <c r="E149" t="s">
         <v>7</v>
       </c>
       <c r="F149" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
@@ -3753,11 +4309,15 @@
       <c r="C150" t="s">
         <v>5</v>
       </c>
+      <c r="D150">
+        <f t="shared" ca="1" si="5"/>
+        <v>5</v>
+      </c>
       <c r="E150" t="s">
         <v>7</v>
       </c>
       <c r="F150" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
@@ -3770,11 +4330,15 @@
       <c r="C151" t="s">
         <v>5</v>
       </c>
+      <c r="D151">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
       <c r="E151" t="s">
         <v>7</v>
       </c>
       <c r="F151" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
@@ -3787,11 +4351,15 @@
       <c r="C152" t="s">
         <v>5</v>
       </c>
+      <c r="D152">
+        <f t="shared" ref="D152:D201" ca="1" si="8">D132</f>
+        <v>3</v>
+      </c>
       <c r="E152" t="s">
         <v>7</v>
       </c>
       <c r="F152" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
@@ -3804,11 +4372,15 @@
       <c r="C153" t="s">
         <v>5</v>
       </c>
+      <c r="D153">
+        <f t="shared" ca="1" si="8"/>
+        <v>3</v>
+      </c>
       <c r="E153" t="s">
         <v>7</v>
       </c>
       <c r="F153" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
@@ -3821,11 +4393,15 @@
       <c r="C154" t="s">
         <v>5</v>
       </c>
+      <c r="D154">
+        <f t="shared" ca="1" si="8"/>
+        <v>1</v>
+      </c>
       <c r="E154" t="s">
         <v>7</v>
       </c>
       <c r="F154" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
@@ -3838,11 +4414,15 @@
       <c r="C155" t="s">
         <v>3</v>
       </c>
+      <c r="D155">
+        <f t="shared" ca="1" si="8"/>
+        <v>5</v>
+      </c>
       <c r="E155" t="s">
         <v>7</v>
       </c>
       <c r="F155" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
@@ -3855,11 +4435,15 @@
       <c r="C156" t="s">
         <v>4</v>
       </c>
+      <c r="D156">
+        <f t="shared" ca="1" si="8"/>
+        <v>2</v>
+      </c>
       <c r="E156" t="s">
         <v>7</v>
       </c>
       <c r="F156" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
@@ -3872,11 +4456,15 @@
       <c r="C157" t="s">
         <v>4</v>
       </c>
+      <c r="D157">
+        <f t="shared" ca="1" si="8"/>
+        <v>3</v>
+      </c>
       <c r="E157" t="s">
         <v>7</v>
       </c>
       <c r="F157" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
@@ -3889,11 +4477,15 @@
       <c r="C158" t="s">
         <v>3</v>
       </c>
+      <c r="D158">
+        <f t="shared" ca="1" si="8"/>
+        <v>5</v>
+      </c>
       <c r="E158" t="s">
         <v>7</v>
       </c>
       <c r="F158" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
@@ -3906,11 +4498,15 @@
       <c r="C159" t="s">
         <v>5</v>
       </c>
+      <c r="D159">
+        <f t="shared" ca="1" si="8"/>
+        <v>3</v>
+      </c>
       <c r="E159" t="s">
         <v>7</v>
       </c>
       <c r="F159" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
@@ -3923,11 +4519,15 @@
       <c r="C160" t="s">
         <v>4</v>
       </c>
+      <c r="D160">
+        <f t="shared" ca="1" si="8"/>
+        <v>2</v>
+      </c>
       <c r="E160" t="s">
         <v>7</v>
       </c>
       <c r="F160" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
@@ -3940,11 +4540,15 @@
       <c r="C161" t="s">
         <v>6</v>
       </c>
+      <c r="D161">
+        <f t="shared" ca="1" si="8"/>
+        <v>2</v>
+      </c>
       <c r="E161" t="s">
         <v>7</v>
       </c>
       <c r="F161" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
@@ -3957,11 +4561,15 @@
       <c r="C162" t="s">
         <v>3</v>
       </c>
+      <c r="D162">
+        <f t="shared" ca="1" si="8"/>
+        <v>4</v>
+      </c>
       <c r="E162" t="s">
         <v>13</v>
       </c>
       <c r="F162" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
@@ -3973,13 +4581,17 @@
       </c>
       <c r="C163" t="s">
         <v>4</v>
+      </c>
+      <c r="D163">
+        <f t="shared" ca="1" si="8"/>
+        <v>1</v>
       </c>
       <c r="E163" t="str">
         <f>$E162</f>
         <v>d27b4d00-2d02-4b71-8ebf-c2357f2e8ed0</v>
       </c>
       <c r="F163" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
@@ -3992,12 +4604,16 @@
       <c r="C164" t="s">
         <v>5</v>
       </c>
+      <c r="D164">
+        <f t="shared" ca="1" si="8"/>
+        <v>2</v>
+      </c>
       <c r="E164" t="str">
-        <f t="shared" ref="E164:E181" si="5">$E163</f>
+        <f t="shared" ref="E164:E181" si="9">$E163</f>
         <v>d27b4d00-2d02-4b71-8ebf-c2357f2e8ed0</v>
       </c>
       <c r="F164" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
@@ -4010,12 +4626,16 @@
       <c r="C165" t="s">
         <v>3</v>
       </c>
+      <c r="D165">
+        <f t="shared" ca="1" si="8"/>
+        <v>5</v>
+      </c>
       <c r="E165" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>d27b4d00-2d02-4b71-8ebf-c2357f2e8ed0</v>
       </c>
       <c r="F165" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
@@ -4028,12 +4648,16 @@
       <c r="C166" t="s">
         <v>3</v>
       </c>
+      <c r="D166">
+        <f t="shared" ca="1" si="8"/>
+        <v>2</v>
+      </c>
       <c r="E166" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>d27b4d00-2d02-4b71-8ebf-c2357f2e8ed0</v>
       </c>
       <c r="F166" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
@@ -4046,12 +4670,16 @@
       <c r="C167" t="s">
         <v>6</v>
       </c>
+      <c r="D167">
+        <f t="shared" ca="1" si="8"/>
+        <v>2</v>
+      </c>
       <c r="E167" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>d27b4d00-2d02-4b71-8ebf-c2357f2e8ed0</v>
       </c>
       <c r="F167" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
@@ -4064,12 +4692,16 @@
       <c r="C168" t="s">
         <v>3</v>
       </c>
+      <c r="D168">
+        <f t="shared" ca="1" si="8"/>
+        <v>3</v>
+      </c>
       <c r="E168" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>d27b4d00-2d02-4b71-8ebf-c2357f2e8ed0</v>
       </c>
       <c r="F168" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
@@ -4082,12 +4714,16 @@
       <c r="C169" t="s">
         <v>3</v>
       </c>
+      <c r="D169">
+        <f t="shared" ca="1" si="8"/>
+        <v>5</v>
+      </c>
       <c r="E169" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>d27b4d00-2d02-4b71-8ebf-c2357f2e8ed0</v>
       </c>
       <c r="F169" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
@@ -4100,12 +4736,16 @@
       <c r="C170" t="s">
         <v>5</v>
       </c>
+      <c r="D170">
+        <f t="shared" ca="1" si="8"/>
+        <v>5</v>
+      </c>
       <c r="E170" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>d27b4d00-2d02-4b71-8ebf-c2357f2e8ed0</v>
       </c>
       <c r="F170" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
@@ -4118,12 +4758,16 @@
       <c r="C171" t="s">
         <v>5</v>
       </c>
+      <c r="D171">
+        <f t="shared" ca="1" si="8"/>
+        <v>1</v>
+      </c>
       <c r="E171" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>d27b4d00-2d02-4b71-8ebf-c2357f2e8ed0</v>
       </c>
       <c r="F171" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
@@ -4136,12 +4780,16 @@
       <c r="C172" t="s">
         <v>5</v>
       </c>
+      <c r="D172">
+        <f t="shared" ca="1" si="8"/>
+        <v>3</v>
+      </c>
       <c r="E172" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>d27b4d00-2d02-4b71-8ebf-c2357f2e8ed0</v>
       </c>
       <c r="F172" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
@@ -4154,12 +4802,16 @@
       <c r="C173" t="s">
         <v>5</v>
       </c>
+      <c r="D173">
+        <f t="shared" ca="1" si="8"/>
+        <v>3</v>
+      </c>
       <c r="E173" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>d27b4d00-2d02-4b71-8ebf-c2357f2e8ed0</v>
       </c>
       <c r="F173" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
@@ -4172,12 +4824,16 @@
       <c r="C174" t="s">
         <v>5</v>
       </c>
+      <c r="D174">
+        <f t="shared" ca="1" si="8"/>
+        <v>1</v>
+      </c>
       <c r="E174" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>d27b4d00-2d02-4b71-8ebf-c2357f2e8ed0</v>
       </c>
       <c r="F174" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
@@ -4190,12 +4846,16 @@
       <c r="C175" t="s">
         <v>3</v>
       </c>
+      <c r="D175">
+        <f t="shared" ca="1" si="8"/>
+        <v>5</v>
+      </c>
       <c r="E175" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>d27b4d00-2d02-4b71-8ebf-c2357f2e8ed0</v>
       </c>
       <c r="F175" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
@@ -4208,12 +4868,16 @@
       <c r="C176" t="s">
         <v>4</v>
       </c>
+      <c r="D176">
+        <f t="shared" ca="1" si="8"/>
+        <v>2</v>
+      </c>
       <c r="E176" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>d27b4d00-2d02-4b71-8ebf-c2357f2e8ed0</v>
       </c>
       <c r="F176" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
@@ -4226,12 +4890,16 @@
       <c r="C177" t="s">
         <v>4</v>
       </c>
+      <c r="D177">
+        <f t="shared" ca="1" si="8"/>
+        <v>3</v>
+      </c>
       <c r="E177" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>d27b4d00-2d02-4b71-8ebf-c2357f2e8ed0</v>
       </c>
       <c r="F177" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
@@ -4244,12 +4912,16 @@
       <c r="C178" t="s">
         <v>3</v>
       </c>
+      <c r="D178">
+        <f t="shared" ca="1" si="8"/>
+        <v>5</v>
+      </c>
       <c r="E178" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>d27b4d00-2d02-4b71-8ebf-c2357f2e8ed0</v>
       </c>
       <c r="F178" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
@@ -4262,12 +4934,16 @@
       <c r="C179" t="s">
         <v>5</v>
       </c>
+      <c r="D179">
+        <f t="shared" ca="1" si="8"/>
+        <v>3</v>
+      </c>
       <c r="E179" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>d27b4d00-2d02-4b71-8ebf-c2357f2e8ed0</v>
       </c>
       <c r="F179" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
@@ -4280,12 +4956,16 @@
       <c r="C180" t="s">
         <v>4</v>
       </c>
+      <c r="D180">
+        <f t="shared" ca="1" si="8"/>
+        <v>2</v>
+      </c>
       <c r="E180" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>d27b4d00-2d02-4b71-8ebf-c2357f2e8ed0</v>
       </c>
       <c r="F180" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
@@ -4298,12 +4978,16 @@
       <c r="C181" t="s">
         <v>6</v>
       </c>
+      <c r="D181">
+        <f t="shared" ca="1" si="8"/>
+        <v>2</v>
+      </c>
       <c r="E181" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>d27b4d00-2d02-4b71-8ebf-c2357f2e8ed0</v>
       </c>
       <c r="F181" s="1" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
@@ -4316,11 +5000,15 @@
       <c r="C182" t="s">
         <v>3</v>
       </c>
+      <c r="D182">
+        <f t="shared" ca="1" si="8"/>
+        <v>4</v>
+      </c>
       <c r="E182" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="F182" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
@@ -4332,13 +5020,17 @@
       </c>
       <c r="C183" t="s">
         <v>4</v>
+      </c>
+      <c r="D183">
+        <f t="shared" ca="1" si="8"/>
+        <v>1</v>
       </c>
       <c r="E183" t="str">
         <f>E182</f>
         <v>6fe37ed2-3059-4c59-ba53-626860df29dd</v>
       </c>
       <c r="F183" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
@@ -4351,12 +5043,16 @@
       <c r="C184" t="s">
         <v>5</v>
       </c>
+      <c r="D184">
+        <f t="shared" ca="1" si="8"/>
+        <v>2</v>
+      </c>
       <c r="E184" t="str">
-        <f t="shared" ref="E184:E201" si="6">E183</f>
+        <f t="shared" ref="E184:E201" si="10">E183</f>
         <v>6fe37ed2-3059-4c59-ba53-626860df29dd</v>
       </c>
       <c r="F184" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
@@ -4369,12 +5065,16 @@
       <c r="C185" t="s">
         <v>3</v>
       </c>
+      <c r="D185">
+        <f t="shared" ca="1" si="8"/>
+        <v>5</v>
+      </c>
       <c r="E185" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>6fe37ed2-3059-4c59-ba53-626860df29dd</v>
       </c>
       <c r="F185" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
@@ -4387,12 +5087,16 @@
       <c r="C186" t="s">
         <v>3</v>
       </c>
+      <c r="D186">
+        <f t="shared" ca="1" si="8"/>
+        <v>2</v>
+      </c>
       <c r="E186" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>6fe37ed2-3059-4c59-ba53-626860df29dd</v>
       </c>
       <c r="F186" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
@@ -4405,12 +5109,16 @@
       <c r="C187" t="s">
         <v>6</v>
       </c>
+      <c r="D187">
+        <f t="shared" ca="1" si="8"/>
+        <v>2</v>
+      </c>
       <c r="E187" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>6fe37ed2-3059-4c59-ba53-626860df29dd</v>
       </c>
       <c r="F187" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
@@ -4423,12 +5131,16 @@
       <c r="C188" t="s">
         <v>3</v>
       </c>
+      <c r="D188">
+        <f t="shared" ca="1" si="8"/>
+        <v>3</v>
+      </c>
       <c r="E188" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>6fe37ed2-3059-4c59-ba53-626860df29dd</v>
       </c>
       <c r="F188" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
@@ -4441,12 +5153,16 @@
       <c r="C189" t="s">
         <v>3</v>
       </c>
+      <c r="D189">
+        <f t="shared" ca="1" si="8"/>
+        <v>5</v>
+      </c>
       <c r="E189" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>6fe37ed2-3059-4c59-ba53-626860df29dd</v>
       </c>
       <c r="F189" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
@@ -4459,12 +5175,16 @@
       <c r="C190" t="s">
         <v>5</v>
       </c>
+      <c r="D190">
+        <f t="shared" ca="1" si="8"/>
+        <v>5</v>
+      </c>
       <c r="E190" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>6fe37ed2-3059-4c59-ba53-626860df29dd</v>
       </c>
       <c r="F190" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
@@ -4477,12 +5197,16 @@
       <c r="C191" t="s">
         <v>5</v>
       </c>
+      <c r="D191">
+        <f t="shared" ca="1" si="8"/>
+        <v>1</v>
+      </c>
       <c r="E191" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>6fe37ed2-3059-4c59-ba53-626860df29dd</v>
       </c>
       <c r="F191" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
@@ -4495,12 +5219,16 @@
       <c r="C192" t="s">
         <v>5</v>
       </c>
+      <c r="D192">
+        <f t="shared" ca="1" si="8"/>
+        <v>3</v>
+      </c>
       <c r="E192" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>6fe37ed2-3059-4c59-ba53-626860df29dd</v>
       </c>
       <c r="F192" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
@@ -4513,12 +5241,16 @@
       <c r="C193" t="s">
         <v>5</v>
       </c>
+      <c r="D193">
+        <f t="shared" ca="1" si="8"/>
+        <v>3</v>
+      </c>
       <c r="E193" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>6fe37ed2-3059-4c59-ba53-626860df29dd</v>
       </c>
       <c r="F193" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
@@ -4531,12 +5263,16 @@
       <c r="C194" t="s">
         <v>5</v>
       </c>
+      <c r="D194">
+        <f t="shared" ca="1" si="8"/>
+        <v>1</v>
+      </c>
       <c r="E194" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>6fe37ed2-3059-4c59-ba53-626860df29dd</v>
       </c>
       <c r="F194" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
@@ -4549,12 +5285,16 @@
       <c r="C195" t="s">
         <v>3</v>
       </c>
+      <c r="D195">
+        <f t="shared" ca="1" si="8"/>
+        <v>5</v>
+      </c>
       <c r="E195" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>6fe37ed2-3059-4c59-ba53-626860df29dd</v>
       </c>
       <c r="F195" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
@@ -4567,12 +5307,16 @@
       <c r="C196" t="s">
         <v>4</v>
       </c>
+      <c r="D196">
+        <f t="shared" ca="1" si="8"/>
+        <v>2</v>
+      </c>
       <c r="E196" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>6fe37ed2-3059-4c59-ba53-626860df29dd</v>
       </c>
       <c r="F196" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
@@ -4585,12 +5329,16 @@
       <c r="C197" t="s">
         <v>4</v>
       </c>
+      <c r="D197">
+        <f t="shared" ca="1" si="8"/>
+        <v>3</v>
+      </c>
       <c r="E197" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>6fe37ed2-3059-4c59-ba53-626860df29dd</v>
       </c>
       <c r="F197" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
@@ -4603,12 +5351,16 @@
       <c r="C198" t="s">
         <v>3</v>
       </c>
+      <c r="D198">
+        <f t="shared" ca="1" si="8"/>
+        <v>5</v>
+      </c>
       <c r="E198" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>6fe37ed2-3059-4c59-ba53-626860df29dd</v>
       </c>
       <c r="F198" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
@@ -4621,12 +5373,16 @@
       <c r="C199" t="s">
         <v>5</v>
       </c>
+      <c r="D199">
+        <f t="shared" ca="1" si="8"/>
+        <v>3</v>
+      </c>
       <c r="E199" t="str">
-        <f t="shared" si="6"/>
+        <f>E198</f>
         <v>6fe37ed2-3059-4c59-ba53-626860df29dd</v>
       </c>
       <c r="F199" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
@@ -4639,12 +5395,16 @@
       <c r="C200" t="s">
         <v>4</v>
       </c>
+      <c r="D200">
+        <f t="shared" ca="1" si="8"/>
+        <v>2</v>
+      </c>
       <c r="E200" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>6fe37ed2-3059-4c59-ba53-626860df29dd</v>
       </c>
       <c r="F200" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.25">
@@ -4657,12 +5417,16 @@
       <c r="C201" t="s">
         <v>6</v>
       </c>
+      <c r="D201">
+        <f t="shared" ca="1" si="8"/>
+        <v>2</v>
+      </c>
       <c r="E201" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>6fe37ed2-3059-4c59-ba53-626860df29dd</v>
       </c>
       <c r="F201" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
     </row>
   </sheetData>

--- a/data/rooms.xlsx
+++ b/data/rooms.xlsx
@@ -1042,7 +1042,7 @@
   <dimension ref="A1:G201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1090,7 +1090,7 @@
       </c>
       <c r="D2">
         <f ca="1">INT(RANDBETWEEN(1,5))</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E2" t="s">
         <v>11</v>
@@ -1177,7 +1177,7 @@
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E6" t="str">
         <f t="shared" si="1"/>
@@ -1199,7 +1199,7 @@
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E7" t="str">
         <f t="shared" si="1"/>
@@ -1221,7 +1221,7 @@
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E8" t="str">
         <f t="shared" si="1"/>
@@ -1243,7 +1243,7 @@
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E9" t="str">
         <f t="shared" si="1"/>
@@ -1265,7 +1265,7 @@
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E10" t="str">
         <f t="shared" si="1"/>
@@ -1287,7 +1287,7 @@
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E11" t="str">
         <f t="shared" si="1"/>
@@ -1309,7 +1309,7 @@
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E12" t="str">
         <f t="shared" si="1"/>
@@ -1331,7 +1331,7 @@
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E13" t="str">
         <f t="shared" si="1"/>
@@ -1353,7 +1353,7 @@
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E14" t="str">
         <f t="shared" si="1"/>
@@ -1375,7 +1375,7 @@
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E15" t="str">
         <f t="shared" si="1"/>
@@ -1397,7 +1397,7 @@
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E16" t="str">
         <f t="shared" si="1"/>
@@ -1419,7 +1419,7 @@
       </c>
       <c r="D17">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E17" t="str">
         <f t="shared" si="1"/>
@@ -1441,7 +1441,7 @@
       </c>
       <c r="D18">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E18" t="str">
         <f t="shared" si="1"/>
@@ -1463,7 +1463,7 @@
       </c>
       <c r="D19">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E19" t="str">
         <f t="shared" si="1"/>
@@ -1485,7 +1485,7 @@
       </c>
       <c r="D20">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E20" t="str">
         <f t="shared" si="1"/>
@@ -1507,7 +1507,7 @@
       </c>
       <c r="D21">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E21" t="str">
         <f t="shared" si="1"/>
@@ -1529,7 +1529,7 @@
       </c>
       <c r="D22">
         <f ca="1">D2</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E22" t="s">
         <v>8</v>
@@ -1619,7 +1619,7 @@
       </c>
       <c r="D26">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E26" t="str">
         <f t="shared" si="3"/>
@@ -1641,7 +1641,7 @@
       </c>
       <c r="D27">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E27" t="str">
         <f t="shared" si="3"/>
@@ -1663,7 +1663,7 @@
       </c>
       <c r="D28">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E28" t="str">
         <f t="shared" si="3"/>
@@ -1685,7 +1685,7 @@
       </c>
       <c r="D29">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E29" t="str">
         <f t="shared" si="3"/>
@@ -1707,7 +1707,7 @@
       </c>
       <c r="D30">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E30" t="str">
         <f t="shared" si="3"/>
@@ -1729,7 +1729,7 @@
       </c>
       <c r="D31">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E31" t="str">
         <f t="shared" si="3"/>
@@ -1751,7 +1751,7 @@
       </c>
       <c r="D32">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E32" t="str">
         <f t="shared" si="3"/>
@@ -1773,7 +1773,7 @@
       </c>
       <c r="D33">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E33" t="str">
         <f t="shared" si="3"/>
@@ -1795,7 +1795,7 @@
       </c>
       <c r="D34">
         <f ca="1">D14</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E34" t="str">
         <f t="shared" si="3"/>
@@ -1817,7 +1817,7 @@
       </c>
       <c r="D35">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E35" t="str">
         <f t="shared" si="3"/>
@@ -1839,7 +1839,7 @@
       </c>
       <c r="D36">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E36" t="str">
         <f t="shared" si="3"/>
@@ -1861,7 +1861,7 @@
       </c>
       <c r="D37">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E37" t="str">
         <f t="shared" si="3"/>
@@ -1883,7 +1883,7 @@
       </c>
       <c r="D38">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E38" t="str">
         <f>$E37</f>
@@ -1905,7 +1905,7 @@
       </c>
       <c r="D39">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E39" t="str">
         <f t="shared" si="3"/>
@@ -1927,7 +1927,7 @@
       </c>
       <c r="D40">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E40" t="str">
         <f t="shared" si="3"/>
@@ -1949,7 +1949,7 @@
       </c>
       <c r="D41">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E41" t="str">
         <f t="shared" si="3"/>
@@ -1971,7 +1971,7 @@
       </c>
       <c r="D42">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>9</v>
@@ -2058,7 +2058,7 @@
       </c>
       <c r="D46">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E46" s="1" t="str">
         <f t="shared" si="4"/>
@@ -2080,7 +2080,7 @@
       </c>
       <c r="D47">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E47" s="1" t="str">
         <f t="shared" si="4"/>
@@ -2105,7 +2105,7 @@
       </c>
       <c r="D48">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E48" s="1" t="str">
         <f t="shared" si="4"/>
@@ -2127,7 +2127,7 @@
       </c>
       <c r="D49">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E49" s="1" t="str">
         <f t="shared" si="4"/>
@@ -2149,7 +2149,7 @@
       </c>
       <c r="D50">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E50" s="1" t="str">
         <f t="shared" si="4"/>
@@ -2171,7 +2171,7 @@
       </c>
       <c r="D51">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E51" s="1" t="str">
         <f t="shared" si="4"/>
@@ -2193,7 +2193,7 @@
       </c>
       <c r="D52">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E52" s="1" t="str">
         <f t="shared" si="4"/>
@@ -2215,7 +2215,7 @@
       </c>
       <c r="D53">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E53" s="1" t="str">
         <f t="shared" si="4"/>
@@ -2237,7 +2237,7 @@
       </c>
       <c r="D54">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E54" s="1" t="str">
         <f t="shared" si="4"/>
@@ -2259,7 +2259,7 @@
       </c>
       <c r="D55">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E55" s="1" t="str">
         <f t="shared" si="4"/>
@@ -2281,7 +2281,7 @@
       </c>
       <c r="D56">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E56" s="1" t="str">
         <f t="shared" si="4"/>
@@ -2303,7 +2303,7 @@
       </c>
       <c r="D57">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E57" s="1" t="str">
         <f t="shared" si="4"/>
@@ -2325,7 +2325,7 @@
       </c>
       <c r="D58">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E58" s="1" t="str">
         <f t="shared" si="4"/>
@@ -2347,7 +2347,7 @@
       </c>
       <c r="D59">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E59" s="1" t="str">
         <f t="shared" si="4"/>
@@ -2369,7 +2369,7 @@
       </c>
       <c r="D60">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E60" s="1" t="str">
         <f t="shared" si="4"/>
@@ -2391,7 +2391,7 @@
       </c>
       <c r="D61">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E61" s="1" t="str">
         <f t="shared" si="4"/>
@@ -2413,7 +2413,7 @@
       </c>
       <c r="D62">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E62" t="s">
         <v>12</v>
@@ -2500,7 +2500,7 @@
       </c>
       <c r="D66">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E66" t="s">
         <v>12</v>
@@ -2521,7 +2521,7 @@
       </c>
       <c r="D67">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E67" t="s">
         <v>12</v>
@@ -2542,7 +2542,7 @@
       </c>
       <c r="D68">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E68" t="s">
         <v>12</v>
@@ -2563,7 +2563,7 @@
       </c>
       <c r="D69">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E69" t="s">
         <v>12</v>
@@ -2584,7 +2584,7 @@
       </c>
       <c r="D70">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E70" t="s">
         <v>12</v>
@@ -2605,7 +2605,7 @@
       </c>
       <c r="D71">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E71" t="s">
         <v>12</v>
@@ -2626,7 +2626,7 @@
       </c>
       <c r="D72">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E72" t="s">
         <v>12</v>
@@ -2647,7 +2647,7 @@
       </c>
       <c r="D73">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E73" t="s">
         <v>12</v>
@@ -2668,7 +2668,7 @@
       </c>
       <c r="D74">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E74" t="s">
         <v>12</v>
@@ -2689,7 +2689,7 @@
       </c>
       <c r="D75">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E75" t="s">
         <v>12</v>
@@ -2710,7 +2710,7 @@
       </c>
       <c r="D76">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E76" t="s">
         <v>12</v>
@@ -2731,7 +2731,7 @@
       </c>
       <c r="D77">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E77" t="s">
         <v>12</v>
@@ -2752,7 +2752,7 @@
       </c>
       <c r="D78">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E78" t="s">
         <v>12</v>
@@ -2773,7 +2773,7 @@
       </c>
       <c r="D79">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E79" t="s">
         <v>12</v>
@@ -2794,7 +2794,7 @@
       </c>
       <c r="D80">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E80" t="s">
         <v>12</v>
@@ -2815,7 +2815,7 @@
       </c>
       <c r="D81">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E81" t="s">
         <v>12</v>
@@ -2836,7 +2836,7 @@
       </c>
       <c r="D82">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E82" t="s">
         <v>14</v>
@@ -2920,7 +2920,7 @@
       </c>
       <c r="D86">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E86" t="s">
         <v>14</v>
@@ -2941,7 +2941,7 @@
       </c>
       <c r="D87">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E87" t="s">
         <v>14</v>
@@ -2962,7 +2962,7 @@
       </c>
       <c r="D88">
         <f t="shared" ref="D88:D151" ca="1" si="5">D68</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E88" t="s">
         <v>14</v>
@@ -2983,7 +2983,7 @@
       </c>
       <c r="D89">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E89" t="s">
         <v>14</v>
@@ -3004,7 +3004,7 @@
       </c>
       <c r="D90">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E90" t="s">
         <v>14</v>
@@ -3025,7 +3025,7 @@
       </c>
       <c r="D91">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E91" t="s">
         <v>14</v>
@@ -3046,7 +3046,7 @@
       </c>
       <c r="D92">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E92" t="s">
         <v>14</v>
@@ -3067,7 +3067,7 @@
       </c>
       <c r="D93">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E93" t="s">
         <v>14</v>
@@ -3088,7 +3088,7 @@
       </c>
       <c r="D94">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E94" t="s">
         <v>14</v>
@@ -3109,7 +3109,7 @@
       </c>
       <c r="D95">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E95" t="s">
         <v>14</v>
@@ -3130,7 +3130,7 @@
       </c>
       <c r="D96">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E96" t="s">
         <v>14</v>
@@ -3151,7 +3151,7 @@
       </c>
       <c r="D97">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E97" t="s">
         <v>14</v>
@@ -3172,7 +3172,7 @@
       </c>
       <c r="D98">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E98" t="s">
         <v>14</v>
@@ -3193,7 +3193,7 @@
       </c>
       <c r="D99">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E99" t="s">
         <v>14</v>
@@ -3214,7 +3214,7 @@
       </c>
       <c r="D100">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E100" t="s">
         <v>14</v>
@@ -3235,7 +3235,7 @@
       </c>
       <c r="D101">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E101" t="s">
         <v>14</v>
@@ -3256,7 +3256,7 @@
       </c>
       <c r="D102">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E102" t="s">
         <v>10</v>
@@ -3343,7 +3343,7 @@
       </c>
       <c r="D106">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E106" t="str">
         <f t="shared" si="6"/>
@@ -3365,7 +3365,7 @@
       </c>
       <c r="D107">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E107" t="str">
         <f t="shared" si="6"/>
@@ -3390,7 +3390,7 @@
       </c>
       <c r="D108">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E108" t="str">
         <f t="shared" si="6"/>
@@ -3412,7 +3412,7 @@
       </c>
       <c r="D109">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E109" t="str">
         <f t="shared" si="6"/>
@@ -3434,7 +3434,7 @@
       </c>
       <c r="D110">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E110" t="str">
         <f t="shared" si="6"/>
@@ -3456,7 +3456,7 @@
       </c>
       <c r="D111">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E111" t="str">
         <f t="shared" si="6"/>
@@ -3478,7 +3478,7 @@
       </c>
       <c r="D112">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E112" t="str">
         <f t="shared" si="6"/>
@@ -3500,7 +3500,7 @@
       </c>
       <c r="D113">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E113" t="str">
         <f t="shared" si="6"/>
@@ -3522,7 +3522,7 @@
       </c>
       <c r="D114">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E114" t="str">
         <f t="shared" si="6"/>
@@ -3544,7 +3544,7 @@
       </c>
       <c r="D115">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E115" t="str">
         <f t="shared" si="6"/>
@@ -3566,7 +3566,7 @@
       </c>
       <c r="D116">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E116" t="str">
         <f t="shared" si="6"/>
@@ -3588,7 +3588,7 @@
       </c>
       <c r="D117">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E117" t="str">
         <f t="shared" si="6"/>
@@ -3610,7 +3610,7 @@
       </c>
       <c r="D118">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E118" t="str">
         <f t="shared" si="6"/>
@@ -3632,7 +3632,7 @@
       </c>
       <c r="D119">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E119" t="str">
         <f t="shared" si="6"/>
@@ -3654,7 +3654,7 @@
       </c>
       <c r="D120">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E120" t="str">
         <f t="shared" si="6"/>
@@ -3676,7 +3676,7 @@
       </c>
       <c r="D121">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E121" t="str">
         <f t="shared" si="6"/>
@@ -3698,7 +3698,7 @@
       </c>
       <c r="D122">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E122" t="s">
         <v>15</v>
@@ -3785,7 +3785,7 @@
       </c>
       <c r="D126">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E126" t="str">
         <f t="shared" si="7"/>
@@ -3807,7 +3807,7 @@
       </c>
       <c r="D127">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E127" t="str">
         <f t="shared" si="7"/>
@@ -3829,7 +3829,7 @@
       </c>
       <c r="D128">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E128" t="str">
         <f t="shared" si="7"/>
@@ -3851,7 +3851,7 @@
       </c>
       <c r="D129">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E129" t="str">
         <f t="shared" si="7"/>
@@ -3873,7 +3873,7 @@
       </c>
       <c r="D130">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E130" t="str">
         <f t="shared" si="7"/>
@@ -3895,7 +3895,7 @@
       </c>
       <c r="D131">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E131" t="str">
         <f t="shared" si="7"/>
@@ -3917,7 +3917,7 @@
       </c>
       <c r="D132">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E132" t="str">
         <f t="shared" si="7"/>
@@ -3939,7 +3939,7 @@
       </c>
       <c r="D133">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E133" t="str">
         <f t="shared" si="7"/>
@@ -3961,7 +3961,7 @@
       </c>
       <c r="D134">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E134" t="str">
         <f t="shared" si="7"/>
@@ -3983,7 +3983,7 @@
       </c>
       <c r="D135">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E135" t="str">
         <f t="shared" si="7"/>
@@ -4005,7 +4005,7 @@
       </c>
       <c r="D136">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E136" t="str">
         <f t="shared" si="7"/>
@@ -4027,7 +4027,7 @@
       </c>
       <c r="D137">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E137" t="str">
         <f t="shared" si="7"/>
@@ -4049,7 +4049,7 @@
       </c>
       <c r="D138">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E138" t="str">
         <f t="shared" si="7"/>
@@ -4071,7 +4071,7 @@
       </c>
       <c r="D139">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E139" t="str">
         <f t="shared" si="7"/>
@@ -4093,7 +4093,7 @@
       </c>
       <c r="D140">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E140" t="str">
         <f t="shared" si="7"/>
@@ -4115,7 +4115,7 @@
       </c>
       <c r="D141">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E141" t="str">
         <f t="shared" si="7"/>
@@ -4137,7 +4137,7 @@
       </c>
       <c r="D142">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E142" t="s">
         <v>7</v>
@@ -4224,7 +4224,7 @@
       </c>
       <c r="D146">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E146" t="s">
         <v>7</v>
@@ -4248,7 +4248,7 @@
       </c>
       <c r="D147">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E147" t="s">
         <v>7</v>
@@ -4269,7 +4269,7 @@
       </c>
       <c r="D148">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E148" t="s">
         <v>7</v>
@@ -4290,7 +4290,7 @@
       </c>
       <c r="D149">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E149" t="s">
         <v>7</v>
@@ -4311,7 +4311,7 @@
       </c>
       <c r="D150">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E150" t="s">
         <v>7</v>
@@ -4332,7 +4332,7 @@
       </c>
       <c r="D151">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E151" t="s">
         <v>7</v>
@@ -4353,7 +4353,7 @@
       </c>
       <c r="D152">
         <f t="shared" ref="D152:D201" ca="1" si="8">D132</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E152" t="s">
         <v>7</v>
@@ -4374,7 +4374,7 @@
       </c>
       <c r="D153">
         <f t="shared" ca="1" si="8"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E153" t="s">
         <v>7</v>
@@ -4395,7 +4395,7 @@
       </c>
       <c r="D154">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E154" t="s">
         <v>7</v>
@@ -4416,7 +4416,7 @@
       </c>
       <c r="D155">
         <f t="shared" ca="1" si="8"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E155" t="s">
         <v>7</v>
@@ -4437,7 +4437,7 @@
       </c>
       <c r="D156">
         <f t="shared" ca="1" si="8"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E156" t="s">
         <v>7</v>
@@ -4458,7 +4458,7 @@
       </c>
       <c r="D157">
         <f t="shared" ca="1" si="8"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E157" t="s">
         <v>7</v>
@@ -4479,7 +4479,7 @@
       </c>
       <c r="D158">
         <f t="shared" ca="1" si="8"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E158" t="s">
         <v>7</v>
@@ -4500,7 +4500,7 @@
       </c>
       <c r="D159">
         <f t="shared" ca="1" si="8"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E159" t="s">
         <v>7</v>
@@ -4521,7 +4521,7 @@
       </c>
       <c r="D160">
         <f t="shared" ca="1" si="8"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E160" t="s">
         <v>7</v>
@@ -4542,7 +4542,7 @@
       </c>
       <c r="D161">
         <f t="shared" ca="1" si="8"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E161" t="s">
         <v>7</v>
@@ -4563,7 +4563,7 @@
       </c>
       <c r="D162">
         <f t="shared" ca="1" si="8"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E162" t="s">
         <v>13</v>
@@ -4650,7 +4650,7 @@
       </c>
       <c r="D166">
         <f t="shared" ca="1" si="8"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E166" t="str">
         <f t="shared" si="9"/>
@@ -4672,7 +4672,7 @@
       </c>
       <c r="D167">
         <f t="shared" ca="1" si="8"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E167" t="str">
         <f t="shared" si="9"/>
@@ -4694,7 +4694,7 @@
       </c>
       <c r="D168">
         <f t="shared" ca="1" si="8"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E168" t="str">
         <f t="shared" si="9"/>
@@ -4716,7 +4716,7 @@
       </c>
       <c r="D169">
         <f t="shared" ca="1" si="8"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E169" t="str">
         <f t="shared" si="9"/>
@@ -4738,7 +4738,7 @@
       </c>
       <c r="D170">
         <f t="shared" ca="1" si="8"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E170" t="str">
         <f t="shared" si="9"/>
@@ -4760,7 +4760,7 @@
       </c>
       <c r="D171">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E171" t="str">
         <f t="shared" si="9"/>
@@ -4782,7 +4782,7 @@
       </c>
       <c r="D172">
         <f t="shared" ca="1" si="8"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E172" t="str">
         <f t="shared" si="9"/>
@@ -4804,7 +4804,7 @@
       </c>
       <c r="D173">
         <f t="shared" ca="1" si="8"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E173" t="str">
         <f t="shared" si="9"/>
@@ -4826,7 +4826,7 @@
       </c>
       <c r="D174">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E174" t="str">
         <f t="shared" si="9"/>
@@ -4848,7 +4848,7 @@
       </c>
       <c r="D175">
         <f t="shared" ca="1" si="8"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E175" t="str">
         <f t="shared" si="9"/>
@@ -4870,7 +4870,7 @@
       </c>
       <c r="D176">
         <f t="shared" ca="1" si="8"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E176" t="str">
         <f t="shared" si="9"/>
@@ -4892,7 +4892,7 @@
       </c>
       <c r="D177">
         <f t="shared" ca="1" si="8"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E177" t="str">
         <f t="shared" si="9"/>
@@ -4914,7 +4914,7 @@
       </c>
       <c r="D178">
         <f t="shared" ca="1" si="8"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E178" t="str">
         <f t="shared" si="9"/>
@@ -4936,7 +4936,7 @@
       </c>
       <c r="D179">
         <f t="shared" ca="1" si="8"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E179" t="str">
         <f t="shared" si="9"/>
@@ -4958,7 +4958,7 @@
       </c>
       <c r="D180">
         <f t="shared" ca="1" si="8"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E180" t="str">
         <f t="shared" si="9"/>
@@ -4980,7 +4980,7 @@
       </c>
       <c r="D181">
         <f t="shared" ca="1" si="8"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E181" t="str">
         <f t="shared" si="9"/>
@@ -5002,7 +5002,7 @@
       </c>
       <c r="D182">
         <f t="shared" ca="1" si="8"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E182" t="s">
         <v>196</v>
@@ -5089,7 +5089,7 @@
       </c>
       <c r="D186">
         <f t="shared" ca="1" si="8"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E186" t="str">
         <f t="shared" si="10"/>
@@ -5111,7 +5111,7 @@
       </c>
       <c r="D187">
         <f t="shared" ca="1" si="8"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E187" t="str">
         <f t="shared" si="10"/>
@@ -5133,7 +5133,7 @@
       </c>
       <c r="D188">
         <f t="shared" ca="1" si="8"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E188" t="str">
         <f t="shared" si="10"/>
@@ -5155,7 +5155,7 @@
       </c>
       <c r="D189">
         <f t="shared" ca="1" si="8"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E189" t="str">
         <f t="shared" si="10"/>
@@ -5177,7 +5177,7 @@
       </c>
       <c r="D190">
         <f t="shared" ca="1" si="8"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E190" t="str">
         <f t="shared" si="10"/>
@@ -5199,7 +5199,7 @@
       </c>
       <c r="D191">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E191" t="str">
         <f t="shared" si="10"/>
@@ -5221,7 +5221,7 @@
       </c>
       <c r="D192">
         <f t="shared" ca="1" si="8"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E192" t="str">
         <f t="shared" si="10"/>
@@ -5243,7 +5243,7 @@
       </c>
       <c r="D193">
         <f t="shared" ca="1" si="8"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E193" t="str">
         <f t="shared" si="10"/>
@@ -5265,7 +5265,7 @@
       </c>
       <c r="D194">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E194" t="str">
         <f t="shared" si="10"/>
@@ -5287,7 +5287,7 @@
       </c>
       <c r="D195">
         <f t="shared" ca="1" si="8"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E195" t="str">
         <f t="shared" si="10"/>
@@ -5309,7 +5309,7 @@
       </c>
       <c r="D196">
         <f t="shared" ca="1" si="8"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E196" t="str">
         <f t="shared" si="10"/>
@@ -5331,7 +5331,7 @@
       </c>
       <c r="D197">
         <f t="shared" ca="1" si="8"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E197" t="str">
         <f t="shared" si="10"/>
@@ -5353,7 +5353,7 @@
       </c>
       <c r="D198">
         <f t="shared" ca="1" si="8"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E198" t="str">
         <f t="shared" si="10"/>
@@ -5375,7 +5375,7 @@
       </c>
       <c r="D199">
         <f t="shared" ca="1" si="8"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E199" t="str">
         <f>E198</f>
@@ -5397,7 +5397,7 @@
       </c>
       <c r="D200">
         <f t="shared" ca="1" si="8"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E200" t="str">
         <f t="shared" si="10"/>
@@ -5419,7 +5419,7 @@
       </c>
       <c r="D201">
         <f t="shared" ca="1" si="8"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E201" t="str">
         <f t="shared" si="10"/>

--- a/data/rooms.xlsx
+++ b/data/rooms.xlsx
@@ -1042,7 +1042,7 @@
   <dimension ref="A1:G201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1090,7 +1090,7 @@
       </c>
       <c r="D2">
         <f ca="1">INT(RANDBETWEEN(1,5))</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E2" t="s">
         <v>11</v>
@@ -1111,7 +1111,7 @@
       </c>
       <c r="D3">
         <f t="shared" ref="D3:D21" ca="1" si="0">INT(RANDBETWEEN(1,5))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E3" t="str">
         <f>$E2</f>
@@ -1133,7 +1133,7 @@
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E4" t="str">
         <f t="shared" ref="E4:E21" si="1">$E3</f>
@@ -1155,7 +1155,7 @@
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E5" t="str">
         <f t="shared" si="1"/>
@@ -1177,7 +1177,7 @@
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E6" t="str">
         <f t="shared" si="1"/>
@@ -1199,7 +1199,7 @@
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E7" t="str">
         <f t="shared" si="1"/>
@@ -1221,7 +1221,7 @@
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E8" t="str">
         <f t="shared" si="1"/>
@@ -1243,7 +1243,7 @@
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E9" t="str">
         <f t="shared" si="1"/>
@@ -1265,7 +1265,7 @@
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E10" t="str">
         <f t="shared" si="1"/>
@@ -1287,7 +1287,7 @@
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E11" t="str">
         <f t="shared" si="1"/>
@@ -1309,7 +1309,7 @@
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E12" t="str">
         <f t="shared" si="1"/>
@@ -1353,7 +1353,7 @@
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E14" t="str">
         <f t="shared" si="1"/>
@@ -1375,7 +1375,7 @@
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E15" t="str">
         <f t="shared" si="1"/>
@@ -1397,7 +1397,7 @@
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E16" t="str">
         <f t="shared" si="1"/>
@@ -1419,7 +1419,7 @@
       </c>
       <c r="D17">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E17" t="str">
         <f t="shared" si="1"/>
@@ -1441,7 +1441,7 @@
       </c>
       <c r="D18">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E18" t="str">
         <f t="shared" si="1"/>
@@ -1463,7 +1463,7 @@
       </c>
       <c r="D19">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E19" t="str">
         <f t="shared" si="1"/>
@@ -1485,7 +1485,7 @@
       </c>
       <c r="D20">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E20" t="str">
         <f t="shared" si="1"/>
@@ -1507,7 +1507,7 @@
       </c>
       <c r="D21">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E21" t="str">
         <f t="shared" si="1"/>
@@ -1529,7 +1529,7 @@
       </c>
       <c r="D22">
         <f ca="1">D2</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E22" t="s">
         <v>8</v>
@@ -1553,7 +1553,7 @@
       </c>
       <c r="D23">
         <f t="shared" ref="D23:D87" ca="1" si="2">D3</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E23" t="str">
         <f>$E22</f>
@@ -1575,7 +1575,7 @@
       </c>
       <c r="D24">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E24" t="str">
         <f t="shared" ref="E24:E41" si="3">$E23</f>
@@ -1597,7 +1597,7 @@
       </c>
       <c r="D25">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E25" t="str">
         <f t="shared" si="3"/>
@@ -1619,7 +1619,7 @@
       </c>
       <c r="D26">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E26" t="str">
         <f t="shared" si="3"/>
@@ -1641,7 +1641,7 @@
       </c>
       <c r="D27">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E27" t="str">
         <f t="shared" si="3"/>
@@ -1663,7 +1663,7 @@
       </c>
       <c r="D28">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E28" t="str">
         <f t="shared" si="3"/>
@@ -1685,7 +1685,7 @@
       </c>
       <c r="D29">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E29" t="str">
         <f t="shared" si="3"/>
@@ -1707,7 +1707,7 @@
       </c>
       <c r="D30">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E30" t="str">
         <f t="shared" si="3"/>
@@ -1729,7 +1729,7 @@
       </c>
       <c r="D31">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E31" t="str">
         <f t="shared" si="3"/>
@@ -1751,7 +1751,7 @@
       </c>
       <c r="D32">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E32" t="str">
         <f t="shared" si="3"/>
@@ -1795,7 +1795,7 @@
       </c>
       <c r="D34">
         <f ca="1">D14</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E34" t="str">
         <f t="shared" si="3"/>
@@ -1817,7 +1817,7 @@
       </c>
       <c r="D35">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E35" t="str">
         <f t="shared" si="3"/>
@@ -1839,7 +1839,7 @@
       </c>
       <c r="D36">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E36" t="str">
         <f t="shared" si="3"/>
@@ -1861,7 +1861,7 @@
       </c>
       <c r="D37">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E37" t="str">
         <f t="shared" si="3"/>
@@ -1883,7 +1883,7 @@
       </c>
       <c r="D38">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E38" t="str">
         <f>$E37</f>
@@ -1905,7 +1905,7 @@
       </c>
       <c r="D39">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E39" t="str">
         <f t="shared" si="3"/>
@@ -1927,7 +1927,7 @@
       </c>
       <c r="D40">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E40" t="str">
         <f t="shared" si="3"/>
@@ -1949,7 +1949,7 @@
       </c>
       <c r="D41">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E41" t="str">
         <f t="shared" si="3"/>
@@ -1971,7 +1971,7 @@
       </c>
       <c r="D42">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>9</v>
@@ -1992,7 +1992,7 @@
       </c>
       <c r="D43">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E43" s="1" t="str">
         <f>$E42</f>
@@ -2014,7 +2014,7 @@
       </c>
       <c r="D44">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E44" s="1" t="str">
         <f t="shared" ref="E44:E61" si="4">$E43</f>
@@ -2036,7 +2036,7 @@
       </c>
       <c r="D45">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E45" s="1" t="str">
         <f t="shared" si="4"/>
@@ -2058,7 +2058,7 @@
       </c>
       <c r="D46">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E46" s="1" t="str">
         <f t="shared" si="4"/>
@@ -2080,7 +2080,7 @@
       </c>
       <c r="D47">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E47" s="1" t="str">
         <f t="shared" si="4"/>
@@ -2105,7 +2105,7 @@
       </c>
       <c r="D48">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E48" s="1" t="str">
         <f t="shared" si="4"/>
@@ -2127,7 +2127,7 @@
       </c>
       <c r="D49">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E49" s="1" t="str">
         <f t="shared" si="4"/>
@@ -2149,7 +2149,7 @@
       </c>
       <c r="D50">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E50" s="1" t="str">
         <f t="shared" si="4"/>
@@ -2171,7 +2171,7 @@
       </c>
       <c r="D51">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E51" s="1" t="str">
         <f t="shared" si="4"/>
@@ -2193,7 +2193,7 @@
       </c>
       <c r="D52">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E52" s="1" t="str">
         <f t="shared" si="4"/>
@@ -2237,7 +2237,7 @@
       </c>
       <c r="D54">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E54" s="1" t="str">
         <f t="shared" si="4"/>
@@ -2259,7 +2259,7 @@
       </c>
       <c r="D55">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E55" s="1" t="str">
         <f t="shared" si="4"/>
@@ -2281,7 +2281,7 @@
       </c>
       <c r="D56">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E56" s="1" t="str">
         <f t="shared" si="4"/>
@@ -2303,7 +2303,7 @@
       </c>
       <c r="D57">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E57" s="1" t="str">
         <f t="shared" si="4"/>
@@ -2325,7 +2325,7 @@
       </c>
       <c r="D58">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E58" s="1" t="str">
         <f t="shared" si="4"/>
@@ -2347,7 +2347,7 @@
       </c>
       <c r="D59">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E59" s="1" t="str">
         <f t="shared" si="4"/>
@@ -2369,7 +2369,7 @@
       </c>
       <c r="D60">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E60" s="1" t="str">
         <f t="shared" si="4"/>
@@ -2391,7 +2391,7 @@
       </c>
       <c r="D61">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E61" s="1" t="str">
         <f t="shared" si="4"/>
@@ -2413,7 +2413,7 @@
       </c>
       <c r="D62">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E62" t="s">
         <v>12</v>
@@ -2437,7 +2437,7 @@
       </c>
       <c r="D63">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E63" t="s">
         <v>12</v>
@@ -2458,7 +2458,7 @@
       </c>
       <c r="D64">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E64" t="s">
         <v>12</v>
@@ -2479,7 +2479,7 @@
       </c>
       <c r="D65">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E65" t="s">
         <v>12</v>
@@ -2500,7 +2500,7 @@
       </c>
       <c r="D66">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E66" t="s">
         <v>12</v>
@@ -2521,7 +2521,7 @@
       </c>
       <c r="D67">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E67" t="s">
         <v>12</v>
@@ -2542,7 +2542,7 @@
       </c>
       <c r="D68">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E68" t="s">
         <v>12</v>
@@ -2563,7 +2563,7 @@
       </c>
       <c r="D69">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E69" t="s">
         <v>12</v>
@@ -2584,7 +2584,7 @@
       </c>
       <c r="D70">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E70" t="s">
         <v>12</v>
@@ -2605,7 +2605,7 @@
       </c>
       <c r="D71">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E71" t="s">
         <v>12</v>
@@ -2626,7 +2626,7 @@
       </c>
       <c r="D72">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E72" t="s">
         <v>12</v>
@@ -2668,7 +2668,7 @@
       </c>
       <c r="D74">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E74" t="s">
         <v>12</v>
@@ -2689,7 +2689,7 @@
       </c>
       <c r="D75">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E75" t="s">
         <v>12</v>
@@ -2710,7 +2710,7 @@
       </c>
       <c r="D76">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E76" t="s">
         <v>12</v>
@@ -2731,7 +2731,7 @@
       </c>
       <c r="D77">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E77" t="s">
         <v>12</v>
@@ -2752,7 +2752,7 @@
       </c>
       <c r="D78">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E78" t="s">
         <v>12</v>
@@ -2773,7 +2773,7 @@
       </c>
       <c r="D79">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E79" t="s">
         <v>12</v>
@@ -2794,7 +2794,7 @@
       </c>
       <c r="D80">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E80" t="s">
         <v>12</v>
@@ -2815,7 +2815,7 @@
       </c>
       <c r="D81">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E81" t="s">
         <v>12</v>
@@ -2836,7 +2836,7 @@
       </c>
       <c r="D82">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E82" t="s">
         <v>14</v>
@@ -2857,7 +2857,7 @@
       </c>
       <c r="D83">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E83" t="s">
         <v>14</v>
@@ -2878,7 +2878,7 @@
       </c>
       <c r="D84">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E84" t="s">
         <v>14</v>
@@ -2899,7 +2899,7 @@
       </c>
       <c r="D85">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E85" t="s">
         <v>14</v>
@@ -2920,7 +2920,7 @@
       </c>
       <c r="D86">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E86" t="s">
         <v>14</v>
@@ -2941,7 +2941,7 @@
       </c>
       <c r="D87">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E87" t="s">
         <v>14</v>
@@ -2962,7 +2962,7 @@
       </c>
       <c r="D88">
         <f t="shared" ref="D88:D151" ca="1" si="5">D68</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E88" t="s">
         <v>14</v>
@@ -2983,7 +2983,7 @@
       </c>
       <c r="D89">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E89" t="s">
         <v>14</v>
@@ -3004,7 +3004,7 @@
       </c>
       <c r="D90">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E90" t="s">
         <v>14</v>
@@ -3025,7 +3025,7 @@
       </c>
       <c r="D91">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E91" t="s">
         <v>14</v>
@@ -3046,7 +3046,7 @@
       </c>
       <c r="D92">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E92" t="s">
         <v>14</v>
@@ -3088,7 +3088,7 @@
       </c>
       <c r="D94">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E94" t="s">
         <v>14</v>
@@ -3109,7 +3109,7 @@
       </c>
       <c r="D95">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E95" t="s">
         <v>14</v>
@@ -3130,7 +3130,7 @@
       </c>
       <c r="D96">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E96" t="s">
         <v>14</v>
@@ -3151,7 +3151,7 @@
       </c>
       <c r="D97">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E97" t="s">
         <v>14</v>
@@ -3172,7 +3172,7 @@
       </c>
       <c r="D98">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E98" t="s">
         <v>14</v>
@@ -3193,7 +3193,7 @@
       </c>
       <c r="D99">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E99" t="s">
         <v>14</v>
@@ -3214,7 +3214,7 @@
       </c>
       <c r="D100">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E100" t="s">
         <v>14</v>
@@ -3235,7 +3235,7 @@
       </c>
       <c r="D101">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E101" t="s">
         <v>14</v>
@@ -3256,7 +3256,7 @@
       </c>
       <c r="D102">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E102" t="s">
         <v>10</v>
@@ -3277,7 +3277,7 @@
       </c>
       <c r="D103">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E103" t="str">
         <f>$E102</f>
@@ -3299,7 +3299,7 @@
       </c>
       <c r="D104">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E104" t="str">
         <f t="shared" ref="E104:E121" si="6">$E103</f>
@@ -3321,7 +3321,7 @@
       </c>
       <c r="D105">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E105" t="str">
         <f t="shared" si="6"/>
@@ -3343,7 +3343,7 @@
       </c>
       <c r="D106">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E106" t="str">
         <f t="shared" si="6"/>
@@ -3365,7 +3365,7 @@
       </c>
       <c r="D107">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E107" t="str">
         <f t="shared" si="6"/>
@@ -3390,7 +3390,7 @@
       </c>
       <c r="D108">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E108" t="str">
         <f t="shared" si="6"/>
@@ -3412,7 +3412,7 @@
       </c>
       <c r="D109">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E109" t="str">
         <f t="shared" si="6"/>
@@ -3434,7 +3434,7 @@
       </c>
       <c r="D110">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E110" t="str">
         <f t="shared" si="6"/>
@@ -3456,7 +3456,7 @@
       </c>
       <c r="D111">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E111" t="str">
         <f t="shared" si="6"/>
@@ -3478,7 +3478,7 @@
       </c>
       <c r="D112">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E112" t="str">
         <f t="shared" si="6"/>
@@ -3522,7 +3522,7 @@
       </c>
       <c r="D114">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E114" t="str">
         <f t="shared" si="6"/>
@@ -3544,7 +3544,7 @@
       </c>
       <c r="D115">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E115" t="str">
         <f t="shared" si="6"/>
@@ -3566,7 +3566,7 @@
       </c>
       <c r="D116">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E116" t="str">
         <f t="shared" si="6"/>
@@ -3588,7 +3588,7 @@
       </c>
       <c r="D117">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E117" t="str">
         <f t="shared" si="6"/>
@@ -3610,7 +3610,7 @@
       </c>
       <c r="D118">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E118" t="str">
         <f t="shared" si="6"/>
@@ -3632,7 +3632,7 @@
       </c>
       <c r="D119">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E119" t="str">
         <f t="shared" si="6"/>
@@ -3654,7 +3654,7 @@
       </c>
       <c r="D120">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E120" t="str">
         <f t="shared" si="6"/>
@@ -3676,7 +3676,7 @@
       </c>
       <c r="D121">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E121" t="str">
         <f t="shared" si="6"/>
@@ -3698,7 +3698,7 @@
       </c>
       <c r="D122">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E122" t="s">
         <v>15</v>
@@ -3719,7 +3719,7 @@
       </c>
       <c r="D123">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E123" t="str">
         <f>$E122</f>
@@ -3741,7 +3741,7 @@
       </c>
       <c r="D124">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E124" t="str">
         <f t="shared" ref="E124:E141" si="7">$E123</f>
@@ -3763,7 +3763,7 @@
       </c>
       <c r="D125">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E125" t="str">
         <f t="shared" si="7"/>
@@ -3785,7 +3785,7 @@
       </c>
       <c r="D126">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E126" t="str">
         <f t="shared" si="7"/>
@@ -3807,7 +3807,7 @@
       </c>
       <c r="D127">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E127" t="str">
         <f t="shared" si="7"/>
@@ -3829,7 +3829,7 @@
       </c>
       <c r="D128">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E128" t="str">
         <f t="shared" si="7"/>
@@ -3851,7 +3851,7 @@
       </c>
       <c r="D129">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E129" t="str">
         <f t="shared" si="7"/>
@@ -3873,7 +3873,7 @@
       </c>
       <c r="D130">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E130" t="str">
         <f t="shared" si="7"/>
@@ -3895,7 +3895,7 @@
       </c>
       <c r="D131">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E131" t="str">
         <f t="shared" si="7"/>
@@ -3917,7 +3917,7 @@
       </c>
       <c r="D132">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E132" t="str">
         <f t="shared" si="7"/>
@@ -3961,7 +3961,7 @@
       </c>
       <c r="D134">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E134" t="str">
         <f t="shared" si="7"/>
@@ -3983,7 +3983,7 @@
       </c>
       <c r="D135">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E135" t="str">
         <f t="shared" si="7"/>
@@ -4005,7 +4005,7 @@
       </c>
       <c r="D136">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E136" t="str">
         <f t="shared" si="7"/>
@@ -4027,7 +4027,7 @@
       </c>
       <c r="D137">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E137" t="str">
         <f t="shared" si="7"/>
@@ -4049,7 +4049,7 @@
       </c>
       <c r="D138">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E138" t="str">
         <f t="shared" si="7"/>
@@ -4071,7 +4071,7 @@
       </c>
       <c r="D139">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E139" t="str">
         <f t="shared" si="7"/>
@@ -4093,7 +4093,7 @@
       </c>
       <c r="D140">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E140" t="str">
         <f t="shared" si="7"/>
@@ -4115,7 +4115,7 @@
       </c>
       <c r="D141">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E141" t="str">
         <f t="shared" si="7"/>
@@ -4137,7 +4137,7 @@
       </c>
       <c r="D142">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E142" t="s">
         <v>7</v>
@@ -4158,7 +4158,7 @@
       </c>
       <c r="D143">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E143" t="s">
         <v>7</v>
@@ -4182,7 +4182,7 @@
       </c>
       <c r="D144">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E144" t="s">
         <v>7</v>
@@ -4203,7 +4203,7 @@
       </c>
       <c r="D145">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E145" t="s">
         <v>7</v>
@@ -4224,7 +4224,7 @@
       </c>
       <c r="D146">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E146" t="s">
         <v>7</v>
@@ -4248,7 +4248,7 @@
       </c>
       <c r="D147">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E147" t="s">
         <v>7</v>
@@ -4269,7 +4269,7 @@
       </c>
       <c r="D148">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E148" t="s">
         <v>7</v>
@@ -4290,7 +4290,7 @@
       </c>
       <c r="D149">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E149" t="s">
         <v>7</v>
@@ -4311,7 +4311,7 @@
       </c>
       <c r="D150">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E150" t="s">
         <v>7</v>
@@ -4332,7 +4332,7 @@
       </c>
       <c r="D151">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E151" t="s">
         <v>7</v>
@@ -4353,7 +4353,7 @@
       </c>
       <c r="D152">
         <f t="shared" ref="D152:D201" ca="1" si="8">D132</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E152" t="s">
         <v>7</v>
@@ -4395,7 +4395,7 @@
       </c>
       <c r="D154">
         <f t="shared" ca="1" si="8"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E154" t="s">
         <v>7</v>
@@ -4416,7 +4416,7 @@
       </c>
       <c r="D155">
         <f t="shared" ca="1" si="8"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E155" t="s">
         <v>7</v>
@@ -4437,7 +4437,7 @@
       </c>
       <c r="D156">
         <f t="shared" ca="1" si="8"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E156" t="s">
         <v>7</v>
@@ -4458,7 +4458,7 @@
       </c>
       <c r="D157">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E157" t="s">
         <v>7</v>
@@ -4479,7 +4479,7 @@
       </c>
       <c r="D158">
         <f t="shared" ca="1" si="8"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E158" t="s">
         <v>7</v>
@@ -4500,7 +4500,7 @@
       </c>
       <c r="D159">
         <f t="shared" ca="1" si="8"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E159" t="s">
         <v>7</v>
@@ -4521,7 +4521,7 @@
       </c>
       <c r="D160">
         <f t="shared" ca="1" si="8"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E160" t="s">
         <v>7</v>
@@ -4542,7 +4542,7 @@
       </c>
       <c r="D161">
         <f t="shared" ca="1" si="8"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E161" t="s">
         <v>7</v>
@@ -4563,7 +4563,7 @@
       </c>
       <c r="D162">
         <f t="shared" ca="1" si="8"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E162" t="s">
         <v>13</v>
@@ -4584,7 +4584,7 @@
       </c>
       <c r="D163">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E163" t="str">
         <f>$E162</f>
@@ -4606,7 +4606,7 @@
       </c>
       <c r="D164">
         <f t="shared" ca="1" si="8"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E164" t="str">
         <f t="shared" ref="E164:E181" si="9">$E163</f>
@@ -4628,7 +4628,7 @@
       </c>
       <c r="D165">
         <f t="shared" ca="1" si="8"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E165" t="str">
         <f t="shared" si="9"/>
@@ -4650,7 +4650,7 @@
       </c>
       <c r="D166">
         <f t="shared" ca="1" si="8"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E166" t="str">
         <f t="shared" si="9"/>
@@ -4672,7 +4672,7 @@
       </c>
       <c r="D167">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E167" t="str">
         <f t="shared" si="9"/>
@@ -4694,7 +4694,7 @@
       </c>
       <c r="D168">
         <f t="shared" ca="1" si="8"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E168" t="str">
         <f t="shared" si="9"/>
@@ -4716,7 +4716,7 @@
       </c>
       <c r="D169">
         <f t="shared" ca="1" si="8"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E169" t="str">
         <f t="shared" si="9"/>
@@ -4738,7 +4738,7 @@
       </c>
       <c r="D170">
         <f t="shared" ca="1" si="8"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E170" t="str">
         <f t="shared" si="9"/>
@@ -4760,7 +4760,7 @@
       </c>
       <c r="D171">
         <f t="shared" ca="1" si="8"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E171" t="str">
         <f t="shared" si="9"/>
@@ -4782,7 +4782,7 @@
       </c>
       <c r="D172">
         <f t="shared" ca="1" si="8"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E172" t="str">
         <f t="shared" si="9"/>
@@ -4826,7 +4826,7 @@
       </c>
       <c r="D174">
         <f t="shared" ca="1" si="8"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E174" t="str">
         <f t="shared" si="9"/>
@@ -4848,7 +4848,7 @@
       </c>
       <c r="D175">
         <f t="shared" ca="1" si="8"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E175" t="str">
         <f t="shared" si="9"/>
@@ -4870,7 +4870,7 @@
       </c>
       <c r="D176">
         <f t="shared" ca="1" si="8"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E176" t="str">
         <f t="shared" si="9"/>
@@ -4892,7 +4892,7 @@
       </c>
       <c r="D177">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E177" t="str">
         <f t="shared" si="9"/>
@@ -4914,7 +4914,7 @@
       </c>
       <c r="D178">
         <f t="shared" ca="1" si="8"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E178" t="str">
         <f t="shared" si="9"/>
@@ -4936,7 +4936,7 @@
       </c>
       <c r="D179">
         <f t="shared" ca="1" si="8"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E179" t="str">
         <f t="shared" si="9"/>
@@ -4958,7 +4958,7 @@
       </c>
       <c r="D180">
         <f t="shared" ca="1" si="8"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E180" t="str">
         <f t="shared" si="9"/>
@@ -4980,7 +4980,7 @@
       </c>
       <c r="D181">
         <f t="shared" ca="1" si="8"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E181" t="str">
         <f t="shared" si="9"/>
@@ -5002,7 +5002,7 @@
       </c>
       <c r="D182">
         <f t="shared" ca="1" si="8"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E182" t="s">
         <v>196</v>
@@ -5023,7 +5023,7 @@
       </c>
       <c r="D183">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E183" t="str">
         <f>E182</f>
@@ -5045,7 +5045,7 @@
       </c>
       <c r="D184">
         <f t="shared" ca="1" si="8"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E184" t="str">
         <f t="shared" ref="E184:E201" si="10">E183</f>
@@ -5067,7 +5067,7 @@
       </c>
       <c r="D185">
         <f t="shared" ca="1" si="8"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E185" t="str">
         <f t="shared" si="10"/>
@@ -5089,7 +5089,7 @@
       </c>
       <c r="D186">
         <f t="shared" ca="1" si="8"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E186" t="str">
         <f t="shared" si="10"/>
@@ -5111,7 +5111,7 @@
       </c>
       <c r="D187">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E187" t="str">
         <f t="shared" si="10"/>
@@ -5133,7 +5133,7 @@
       </c>
       <c r="D188">
         <f t="shared" ca="1" si="8"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E188" t="str">
         <f t="shared" si="10"/>
@@ -5155,7 +5155,7 @@
       </c>
       <c r="D189">
         <f t="shared" ca="1" si="8"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E189" t="str">
         <f t="shared" si="10"/>
@@ -5177,7 +5177,7 @@
       </c>
       <c r="D190">
         <f t="shared" ca="1" si="8"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E190" t="str">
         <f t="shared" si="10"/>
@@ -5199,7 +5199,7 @@
       </c>
       <c r="D191">
         <f t="shared" ca="1" si="8"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E191" t="str">
         <f t="shared" si="10"/>
@@ -5221,7 +5221,7 @@
       </c>
       <c r="D192">
         <f t="shared" ca="1" si="8"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E192" t="str">
         <f t="shared" si="10"/>
@@ -5265,7 +5265,7 @@
       </c>
       <c r="D194">
         <f t="shared" ca="1" si="8"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E194" t="str">
         <f t="shared" si="10"/>
@@ -5287,7 +5287,7 @@
       </c>
       <c r="D195">
         <f t="shared" ca="1" si="8"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E195" t="str">
         <f t="shared" si="10"/>
@@ -5309,7 +5309,7 @@
       </c>
       <c r="D196">
         <f t="shared" ca="1" si="8"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E196" t="str">
         <f t="shared" si="10"/>
@@ -5331,7 +5331,7 @@
       </c>
       <c r="D197">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E197" t="str">
         <f t="shared" si="10"/>
@@ -5353,7 +5353,7 @@
       </c>
       <c r="D198">
         <f t="shared" ca="1" si="8"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E198" t="str">
         <f t="shared" si="10"/>
@@ -5375,7 +5375,7 @@
       </c>
       <c r="D199">
         <f t="shared" ca="1" si="8"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E199" t="str">
         <f>E198</f>
@@ -5397,7 +5397,7 @@
       </c>
       <c r="D200">
         <f t="shared" ca="1" si="8"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E200" t="str">
         <f t="shared" si="10"/>
@@ -5419,7 +5419,7 @@
       </c>
       <c r="D201">
         <f t="shared" ca="1" si="8"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E201" t="str">
         <f t="shared" si="10"/>
